--- a/asset/Documents_ja/Exastro-ITA_【参考】登録サービス一覧.xlsx
+++ b/asset/Documents_ja/Exastro-ITA_【参考】登録サービス一覧.xlsx
@@ -5,7 +5,7 @@
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\10.197.19.188\KY-Share\★個人フォルダ★\藤田すずこ\ITA\ドキュメント\ITA導入支援\レビュー後_20210310\プルリク用\20210318\mail\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Users\000001A00B87C\Desktop\mail\ita-automation\1.7.0\210330\it-automation-docs\asset\Documents_ja\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -20,9 +20,9 @@
     <externalReference r:id="rId4"/>
   </externalReferences>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">登録サービス一覧!$C$6:$G$45</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">登録サービス一覧!$C$6:$G$46</definedName>
     <definedName name="FILTER_PARENT_DIR_ID">[1]マスタ!$G$2:$G$289</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">登録サービス一覧!$A$1:$G$44</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">登録サービス一覧!$A$1:$G$45</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="0">登録サービス一覧!$6:$6</definedName>
   </definedNames>
   <calcPr calcId="162913"/>
@@ -43,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="260" uniqueCount="191">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="265" uniqueCount="194">
   <si>
     <t>概要</t>
     <rPh sb="0" eb="2">
@@ -882,9 +882,6 @@
     <t>/bin/sh /(ITAインストールディレクトリ)/ita-root/backyards/common/ky_loopcall-php-procedure.sh /bin/php /bin/php /(ITAインストールディレクトリ)/ita-root/backyards/ita_base/ky_std_synchronize-Conductor.php</t>
   </si>
   <si>
-    <t>/bin/sh /(ITAインストールディレクトリ)/ita-root/backyards/common/ky_loopcall-php-procedure.sh /bin/php /bin/php /(ITAインストールディレクトリ)/ita-root/backyards/ansible_driver/ky_std_synchronize-Collector.php</t>
-  </si>
-  <si>
     <t>/bin/sh /(ITAインストールディレクトリ)/ita-root/backyards/common/ky_loopcall-php-procedure.sh /bin/php /bin/php /(ITAインストールディレクトリ)/ita-root/backyards/material/ky_material_linkage_ansible.php</t>
   </si>
   <si>
@@ -1032,6 +1029,31 @@
   <si>
     <t>パラメータ自動登録
 作業実行が完了した、作業結果から、設定項目値管理に登録した情報を元に、パラメータシートへの登録を行う。</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>/bin/sh /(ITAインストールディレクトリ)/ita-root/backyards/common/ky_loopcall-php-procedure.sh /bin/php /bin/php /(ITAインストールディレクトリ)/ita-root/backyards/ansible_driver/ky_std_synchronize-Collector.php</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ky_create_er-workflow.service</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ER図情報の作成</t>
+    <rPh sb="2" eb="3">
+      <t>ズ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>ジョウホウ</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>サクセイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>/bin/sh /(ITAインストールディレクトリ)/ita-root/backyards/common/ky_loopcall-php-procedure.sh /bin/php /bin/php /(ITAインストールディレクトリ)/ita-root/backyards/ita_base/ky_create_er-workflow.php</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -2998,11 +3020,11 @@
   <sheetPr codeName="Sheet1">
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:H64"/>
+  <dimension ref="A1:H65"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane ySplit="6" topLeftCell="A7" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft"/>
+      <pane ySplit="6" topLeftCell="A16" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E19" sqref="E19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.4"/>
@@ -3027,7 +3049,7 @@
       <c r="E1" s="9"/>
       <c r="F1" s="19"/>
       <c r="G1" s="12" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.4">
@@ -3040,7 +3062,7 @@
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.4">
       <c r="B3" s="13" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="C3" s="9"/>
       <c r="D3" s="9"/>
@@ -3050,7 +3072,7 @@
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.4">
       <c r="B4" s="13" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="C4" s="9"/>
       <c r="D4" s="9"/>
@@ -3080,7 +3102,7 @@
         <v>145</v>
       </c>
       <c r="F6" s="24" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="G6" s="23" t="s">
         <v>146</v>
@@ -3160,7 +3182,7 @@
         <v>127</v>
       </c>
       <c r="F10" s="20" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="G10" s="8" t="s">
         <v>9</v>
@@ -3340,10 +3362,10 @@
         <v>139</v>
       </c>
       <c r="F19" s="20" t="s">
-        <v>157</v>
+        <v>190</v>
       </c>
       <c r="G19" s="8" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="H19" s="15"/>
     </row>
@@ -3355,17 +3377,18 @@
         <v>101</v>
       </c>
       <c r="D20" s="7" t="s">
-        <v>36</v>
+        <v>43</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>37</v>
+        <v>191</v>
       </c>
       <c r="F20" s="20" t="s">
-        <v>158</v>
+        <v>193</v>
       </c>
       <c r="G20" s="8" t="s">
-        <v>38</v>
-      </c>
+        <v>192</v>
+      </c>
+      <c r="H20" s="15"/>
     </row>
     <row r="21" spans="2:8" ht="63" x14ac:dyDescent="0.4">
       <c r="B21" s="22">
@@ -3378,16 +3401,16 @@
         <v>36</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="F21" s="20" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="G21" s="8" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="22" spans="2:8" ht="78.75" x14ac:dyDescent="0.4">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="22" spans="2:8" ht="63" x14ac:dyDescent="0.4">
       <c r="B22" s="22">
         <v>16</v>
       </c>
@@ -3395,19 +3418,19 @@
         <v>101</v>
       </c>
       <c r="D22" s="7" t="s">
-        <v>20</v>
+        <v>36</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>126</v>
+        <v>39</v>
       </c>
       <c r="F22" s="20" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="G22" s="8" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="23" spans="2:8" ht="63" x14ac:dyDescent="0.4">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="23" spans="2:8" ht="78.75" x14ac:dyDescent="0.4">
       <c r="B23" s="22">
         <v>17</v>
       </c>
@@ -3415,16 +3438,16 @@
         <v>101</v>
       </c>
       <c r="D23" s="7" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>23</v>
+        <v>126</v>
       </c>
       <c r="F23" s="20" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="G23" s="8" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
     </row>
     <row r="24" spans="2:8" ht="63" x14ac:dyDescent="0.4">
@@ -3438,13 +3461,13 @@
         <v>22</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>123</v>
+        <v>23</v>
       </c>
       <c r="F24" s="20" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="G24" s="8" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="25" spans="2:8" ht="63" x14ac:dyDescent="0.4">
@@ -3458,16 +3481,16 @@
         <v>22</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="F25" s="20" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="G25" s="8" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="26" spans="2:8" ht="78.75" x14ac:dyDescent="0.4">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="26" spans="2:8" ht="63" x14ac:dyDescent="0.4">
       <c r="B26" s="22">
         <v>20</v>
       </c>
@@ -3478,16 +3501,16 @@
         <v>22</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="F26" s="20" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="G26" s="8" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="27" spans="2:8" ht="63" x14ac:dyDescent="0.4">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="27" spans="2:8" ht="78.75" x14ac:dyDescent="0.4">
       <c r="B27" s="22">
         <v>21</v>
       </c>
@@ -3498,13 +3521,13 @@
         <v>22</v>
       </c>
       <c r="E27" s="7" t="s">
-        <v>28</v>
+        <v>125</v>
       </c>
       <c r="F27" s="20" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="G27" s="8" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
     </row>
     <row r="28" spans="2:8" ht="63" x14ac:dyDescent="0.4">
@@ -3514,20 +3537,20 @@
       <c r="C28" s="10" t="s">
         <v>101</v>
       </c>
-      <c r="D28" s="20" t="s">
-        <v>7</v>
+      <c r="D28" s="7" t="s">
+        <v>22</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>118</v>
+        <v>28</v>
       </c>
       <c r="F28" s="20" t="s">
-        <v>166</v>
-      </c>
-      <c r="G28" s="20" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="29" spans="2:8" ht="78.75" x14ac:dyDescent="0.4">
+        <v>164</v>
+      </c>
+      <c r="G28" s="8" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="29" spans="2:8" ht="63" x14ac:dyDescent="0.4">
       <c r="B29" s="22">
         <v>23</v>
       </c>
@@ -3538,13 +3561,13 @@
         <v>7</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="F29" s="20" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="G29" s="20" t="s">
-        <v>8</v>
+        <v>104</v>
       </c>
     </row>
     <row r="30" spans="2:8" ht="78.75" x14ac:dyDescent="0.4">
@@ -3554,17 +3577,17 @@
       <c r="C30" s="10" t="s">
         <v>101</v>
       </c>
-      <c r="D30" s="7" t="s">
+      <c r="D30" s="20" t="s">
         <v>7</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>30</v>
+        <v>119</v>
       </c>
       <c r="F30" s="20" t="s">
-        <v>168</v>
-      </c>
-      <c r="G30" s="8" t="s">
-        <v>31</v>
+        <v>166</v>
+      </c>
+      <c r="G30" s="20" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="31" spans="2:8" ht="78.75" x14ac:dyDescent="0.4">
@@ -3578,13 +3601,13 @@
         <v>7</v>
       </c>
       <c r="E31" s="7" t="s">
-        <v>120</v>
+        <v>30</v>
       </c>
       <c r="F31" s="20" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="G31" s="8" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="32" spans="2:8" ht="78.75" x14ac:dyDescent="0.4">
@@ -3598,13 +3621,13 @@
         <v>7</v>
       </c>
       <c r="E32" s="7" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="F32" s="20" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="G32" s="8" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="33" spans="1:8" ht="78.75" x14ac:dyDescent="0.4">
@@ -3618,13 +3641,13 @@
         <v>7</v>
       </c>
       <c r="E33" s="7" t="s">
-        <v>117</v>
+        <v>121</v>
       </c>
       <c r="F33" s="20" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="G33" s="8" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="34" spans="1:8" ht="78.75" x14ac:dyDescent="0.4">
@@ -3638,13 +3661,13 @@
         <v>7</v>
       </c>
       <c r="E34" s="7" t="s">
-        <v>41</v>
+        <v>117</v>
       </c>
       <c r="F34" s="20" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="G34" s="8" t="s">
-        <v>188</v>
+        <v>34</v>
       </c>
     </row>
     <row r="35" spans="1:8" ht="78.75" x14ac:dyDescent="0.4">
@@ -3658,13 +3681,13 @@
         <v>7</v>
       </c>
       <c r="E35" s="7" t="s">
-        <v>122</v>
+        <v>41</v>
       </c>
       <c r="F35" s="20" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="G35" s="8" t="s">
-        <v>42</v>
+        <v>187</v>
       </c>
     </row>
     <row r="36" spans="1:8" ht="78.75" x14ac:dyDescent="0.4">
@@ -3675,16 +3698,16 @@
         <v>101</v>
       </c>
       <c r="D36" s="7" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="E36" s="7" t="s">
-        <v>12</v>
+        <v>122</v>
       </c>
       <c r="F36" s="20" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="G36" s="8" t="s">
-        <v>13</v>
+        <v>42</v>
       </c>
     </row>
     <row r="37" spans="1:8" ht="78.75" x14ac:dyDescent="0.4">
@@ -3698,13 +3721,13 @@
         <v>11</v>
       </c>
       <c r="E37" s="7" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="F37" s="20" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="G37" s="8" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="38" spans="1:8" ht="78.75" x14ac:dyDescent="0.4">
@@ -3718,13 +3741,13 @@
         <v>11</v>
       </c>
       <c r="E38" s="7" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="F38" s="20" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="G38" s="8" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
     </row>
     <row r="39" spans="1:8" ht="78.75" x14ac:dyDescent="0.4">
@@ -3738,13 +3761,13 @@
         <v>11</v>
       </c>
       <c r="E39" s="7" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="F39" s="20" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="G39" s="8" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
     </row>
     <row r="40" spans="1:8" ht="78.75" x14ac:dyDescent="0.4">
@@ -3755,16 +3778,16 @@
         <v>101</v>
       </c>
       <c r="D40" s="7" t="s">
-        <v>112</v>
+        <v>11</v>
       </c>
       <c r="E40" s="7" t="s">
-        <v>113</v>
+        <v>18</v>
       </c>
       <c r="F40" s="20" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="G40" s="8" t="s">
-        <v>115</v>
+        <v>19</v>
       </c>
     </row>
     <row r="41" spans="1:8" ht="78.75" x14ac:dyDescent="0.4">
@@ -3778,13 +3801,13 @@
         <v>112</v>
       </c>
       <c r="E41" s="7" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="F41" s="20" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="G41" s="8" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
     </row>
     <row r="42" spans="1:8" ht="78.75" x14ac:dyDescent="0.4">
@@ -3798,16 +3821,16 @@
         <v>112</v>
       </c>
       <c r="E42" s="7" t="s">
-        <v>108</v>
+        <v>111</v>
       </c>
       <c r="F42" s="20" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="G42" s="8" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="43" spans="1:8" ht="63" x14ac:dyDescent="0.4">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="43" spans="1:8" ht="78.75" x14ac:dyDescent="0.4">
       <c r="B43" s="22">
         <v>37</v>
       </c>
@@ -3818,17 +3841,16 @@
         <v>112</v>
       </c>
       <c r="E43" s="7" t="s">
-        <v>140</v>
-      </c>
-      <c r="F43" s="8" t="s">
-        <v>181</v>
+        <v>108</v>
+      </c>
+      <c r="F43" s="20" t="s">
+        <v>179</v>
       </c>
       <c r="G43" s="8" t="s">
-        <v>189</v>
-      </c>
-      <c r="H43" s="15"/>
-    </row>
-    <row r="44" spans="1:8" ht="78.75" x14ac:dyDescent="0.4">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="44" spans="1:8" ht="63" x14ac:dyDescent="0.4">
       <c r="B44" s="22">
         <v>38</v>
       </c>
@@ -3839,27 +3861,45 @@
         <v>112</v>
       </c>
       <c r="E44" s="7" t="s">
+        <v>140</v>
+      </c>
+      <c r="F44" s="8" t="s">
+        <v>180</v>
+      </c>
+      <c r="G44" s="8" t="s">
+        <v>188</v>
+      </c>
+      <c r="H44" s="15"/>
+    </row>
+    <row r="45" spans="1:8" ht="78.75" x14ac:dyDescent="0.4">
+      <c r="B45" s="22">
+        <v>39</v>
+      </c>
+      <c r="C45" s="10" t="s">
+        <v>101</v>
+      </c>
+      <c r="D45" s="7" t="s">
+        <v>112</v>
+      </c>
+      <c r="E45" s="7" t="s">
         <v>141</v>
       </c>
-      <c r="F44" s="8" t="s">
-        <v>183</v>
-      </c>
-      <c r="G44" s="8" t="s">
+      <c r="F45" s="8" t="s">
+        <v>182</v>
+      </c>
+      <c r="G45" s="8" t="s">
         <v>142</v>
       </c>
-      <c r="H44" s="15"/>
-    </row>
-    <row r="45" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A45" s="1"/>
-      <c r="F45" s="21"/>
-      <c r="G45" s="1"/>
+      <c r="H45" s="15"/>
     </row>
     <row r="46" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A46" s="1"/>
-      <c r="B46" s="14"/>
+      <c r="F46" s="21"/>
+      <c r="G46" s="1"/>
     </row>
     <row r="47" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A47" s="1"/>
+      <c r="B47" s="14"/>
     </row>
     <row r="48" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A48" s="1"/>
@@ -3912,8 +3952,11 @@
     <row r="64" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A64" s="1"/>
     </row>
+    <row r="65" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A65" s="1"/>
+    </row>
   </sheetData>
-  <autoFilter ref="C6:G39"/>
+  <autoFilter ref="C6:G40"/>
   <sortState ref="B7:F42">
     <sortCondition ref="B42"/>
   </sortState>

--- a/asset/Documents_ja/Exastro-ITA_【参考】登録サービス一覧.xlsx
+++ b/asset/Documents_ja/Exastro-ITA_【参考】登録サービス一覧.xlsx
@@ -5,7 +5,7 @@
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Users\000001A00B87C\Desktop\mail\ita-automation\1.7.0\210330\it-automation-docs\asset\Documents_ja\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Users\000001A00ABHY\Desktop\mail\GitHub\個人用(it-automation-docs)\it-automation-docs_matsuo\asset\Documents_ja\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -20,9 +20,9 @@
     <externalReference r:id="rId4"/>
   </externalReferences>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">登録サービス一覧!$C$6:$G$46</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">登録サービス一覧!$C$6:$G$43</definedName>
     <definedName name="FILTER_PARENT_DIR_ID">[1]マスタ!$G$2:$G$289</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">登録サービス一覧!$A$1:$G$45</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">登録サービス一覧!$A$1:$G$42</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="0">登録サービス一覧!$6:$6</definedName>
   </definedNames>
   <calcPr calcId="162913"/>
@@ -43,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="265" uniqueCount="194">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="250" uniqueCount="185">
   <si>
     <t>概要</t>
     <rPh sb="0" eb="2">
@@ -191,36 +191,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>ホストグループ変数化機能</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>ホストグループ変数登録機能(Legacy)</t>
-    <rPh sb="7" eb="9">
-      <t>ヘンスウ</t>
-    </rPh>
-    <rPh sb="9" eb="11">
-      <t>トウロク</t>
-    </rPh>
-    <rPh sb="11" eb="13">
-      <t>キノウ</t>
-    </rPh>
-    <phoneticPr fontId="5"/>
-  </si>
-  <si>
-    <t>ホストグループ変数登録機能(LegacyRole)</t>
-    <rPh sb="7" eb="9">
-      <t>ヘンスウ</t>
-    </rPh>
-    <rPh sb="9" eb="11">
-      <t>トウロク</t>
-    </rPh>
-    <rPh sb="11" eb="13">
-      <t>キノウ</t>
-    </rPh>
-    <phoneticPr fontId="5"/>
-  </si>
-  <si>
     <t>ky_hostgroup_split.service</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -736,18 +706,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>ky_hostgroup_make_var.service</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>ky_hostgroup_regist_var_legacy.service</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>ky_hostgroup_regist_var_legacy_role.service</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>ky_create_param_menu_execute.service</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -892,15 +850,6 @@
   </si>
   <si>
     <t>/bin/sh /(ITAインストールディレクトリ)/ita-root/backyards/common/ky_loopcall-php-procedure.sh /bin/php /bin/php /(ITAインストールディレクトリ)/ita-root/backyards/hostgroup/ky_hostgroup_check_loop.php</t>
-  </si>
-  <si>
-    <t>/bin/sh /(ITAインストールディレクトリ)/ita-root/backyards/common/ky_loopcall-php-procedure.sh /bin/php /bin/php /(ITAインストールディレクトリ)/ita-root/backyards/hostgroup/ky_hostgroup_make_var.php</t>
-  </si>
-  <si>
-    <t>/bin/sh /(ITAインストールディレクトリ)/ita-root/backyards/common/ky_loopcall-php-procedure.sh /bin/php /bin/php /(ITAインストールディレクトリ)/ita-root/backyards/hostgroup/ky_hostgroup_regist_var_legacy.php</t>
-  </si>
-  <si>
-    <t>/bin/sh /(ITAインストールディレクトリ)/ita-root/backyards/common/ky_loopcall-php-procedure.sh /bin/php /bin/php /(ITAインストールディレクトリ)/ita-root/backyards/hostgroup/ky_hostgroup_regist_var_legacy_role.php</t>
   </si>
   <si>
     <t>/bin/sh /(ITAインストールディレクトリ)/ita-root/backyards/common/ky_loopcall-php-procedure.sh /bin/php /bin/php /(ITAインストールディレクトリ)/ita-root/backyards/hostgroup/ky_hostgroup_split.php</t>
@@ -3020,11 +2969,11 @@
   <sheetPr codeName="Sheet1">
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:H65"/>
+  <dimension ref="A1:H62"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane ySplit="6" topLeftCell="A16" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E19" sqref="E19"/>
+      <pane ySplit="6" topLeftCell="A7" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.4"/>
@@ -3041,7 +2990,7 @@
   <sheetData>
     <row r="1" spans="1:7" ht="21" x14ac:dyDescent="0.4">
       <c r="A1" s="18" t="s">
-        <v>143</v>
+        <v>137</v>
       </c>
       <c r="B1" s="16"/>
       <c r="C1" s="9"/>
@@ -3049,7 +2998,7 @@
       <c r="E1" s="9"/>
       <c r="F1" s="19"/>
       <c r="G1" s="12" t="s">
-        <v>186</v>
+        <v>177</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.4">
@@ -3062,7 +3011,7 @@
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.4">
       <c r="B3" s="13" t="s">
-        <v>185</v>
+        <v>176</v>
       </c>
       <c r="C3" s="9"/>
       <c r="D3" s="9"/>
@@ -3072,7 +3021,7 @@
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.4">
       <c r="B4" s="13" t="s">
-        <v>184</v>
+        <v>175</v>
       </c>
       <c r="C4" s="9"/>
       <c r="D4" s="9"/>
@@ -3090,22 +3039,22 @@
     </row>
     <row r="6" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B6" s="23" t="s">
-        <v>147</v>
+        <v>141</v>
       </c>
       <c r="C6" s="23" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="D6" s="24" t="s">
-        <v>144</v>
+        <v>138</v>
       </c>
       <c r="E6" s="23" t="s">
-        <v>145</v>
+        <v>139</v>
       </c>
       <c r="F6" s="24" t="s">
-        <v>183</v>
+        <v>174</v>
       </c>
       <c r="G6" s="23" t="s">
-        <v>146</v>
+        <v>140</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.4">
@@ -3113,16 +3062,16 @@
         <v>1</v>
       </c>
       <c r="C7" s="10" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="D7" s="7" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="E7" s="7" t="s">
         <v>2</v>
       </c>
       <c r="F7" s="8" t="s">
-        <v>138</v>
+        <v>132</v>
       </c>
       <c r="G7" s="8" t="s">
         <v>3</v>
@@ -3133,16 +3082,16 @@
         <v>2</v>
       </c>
       <c r="C8" s="25" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="D8" s="7" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="E8" s="7" t="s">
         <v>4</v>
       </c>
       <c r="F8" s="8" t="s">
-        <v>137</v>
+        <v>131</v>
       </c>
       <c r="G8" s="8" t="s">
         <v>5</v>
@@ -3153,16 +3102,16 @@
         <v>3</v>
       </c>
       <c r="C9" s="10" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="D9" s="7" t="s">
         <v>1</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>128</v>
+        <v>122</v>
       </c>
       <c r="F9" s="8" t="s">
-        <v>148</v>
+        <v>142</v>
       </c>
       <c r="G9" s="8" t="s">
         <v>6</v>
@@ -3173,16 +3122,16 @@
         <v>4</v>
       </c>
       <c r="C10" s="10" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="D10" s="7" t="s">
         <v>1</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>127</v>
+        <v>121</v>
       </c>
       <c r="F10" s="20" t="s">
-        <v>181</v>
+        <v>172</v>
       </c>
       <c r="G10" s="8" t="s">
         <v>9</v>
@@ -3193,16 +3142,16 @@
         <v>5</v>
       </c>
       <c r="C11" s="10" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="D11" s="7" t="s">
         <v>1</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>129</v>
+        <v>123</v>
       </c>
       <c r="F11" s="20" t="s">
-        <v>149</v>
+        <v>143</v>
       </c>
       <c r="G11" s="8" t="s">
         <v>10</v>
@@ -3213,19 +3162,19 @@
         <v>6</v>
       </c>
       <c r="C12" s="10" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="D12" s="7" t="s">
         <v>1</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>130</v>
+        <v>124</v>
       </c>
       <c r="F12" s="20" t="s">
-        <v>150</v>
+        <v>144</v>
       </c>
       <c r="G12" s="8" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
     </row>
     <row r="13" spans="1:7" ht="47.25" x14ac:dyDescent="0.4">
@@ -3233,19 +3182,19 @@
         <v>7</v>
       </c>
       <c r="C13" s="10" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="D13" s="7" t="s">
         <v>1</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>131</v>
+        <v>125</v>
       </c>
       <c r="F13" s="20" t="s">
-        <v>151</v>
+        <v>145</v>
       </c>
       <c r="G13" s="20" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
     </row>
     <row r="14" spans="1:7" ht="63" x14ac:dyDescent="0.4">
@@ -3253,19 +3202,19 @@
         <v>8</v>
       </c>
       <c r="C14" s="10" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="D14" s="26" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="E14" s="26" t="s">
-        <v>132</v>
+        <v>126</v>
       </c>
       <c r="F14" s="20" t="s">
-        <v>152</v>
+        <v>146</v>
       </c>
       <c r="G14" s="20" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
     </row>
     <row r="15" spans="1:7" ht="63" x14ac:dyDescent="0.4">
@@ -3273,19 +3222,19 @@
         <v>9</v>
       </c>
       <c r="C15" s="10" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="D15" s="7" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>133</v>
+        <v>127</v>
       </c>
       <c r="F15" s="20" t="s">
-        <v>153</v>
+        <v>147</v>
       </c>
       <c r="G15" s="8" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
     </row>
     <row r="16" spans="1:7" ht="63" x14ac:dyDescent="0.4">
@@ -3293,19 +3242,19 @@
         <v>10</v>
       </c>
       <c r="C16" s="10" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="D16" s="7" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>134</v>
+        <v>128</v>
       </c>
       <c r="F16" s="20" t="s">
-        <v>154</v>
+        <v>148</v>
       </c>
       <c r="G16" s="8" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
     </row>
     <row r="17" spans="2:8" ht="63" x14ac:dyDescent="0.4">
@@ -3313,19 +3262,19 @@
         <v>11</v>
       </c>
       <c r="C17" s="10" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="D17" s="7" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>135</v>
+        <v>129</v>
       </c>
       <c r="F17" s="20" t="s">
-        <v>155</v>
+        <v>149</v>
       </c>
       <c r="G17" s="8" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
     </row>
     <row r="18" spans="2:8" ht="63" x14ac:dyDescent="0.4">
@@ -3333,19 +3282,19 @@
         <v>12</v>
       </c>
       <c r="C18" s="10" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="D18" s="7" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>136</v>
+        <v>130</v>
       </c>
       <c r="F18" s="20" t="s">
-        <v>156</v>
+        <v>150</v>
       </c>
       <c r="G18" s="8" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
     </row>
     <row r="19" spans="2:8" ht="63" x14ac:dyDescent="0.4">
@@ -3353,19 +3302,19 @@
         <v>13</v>
       </c>
       <c r="C19" s="10" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="D19" s="7" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>139</v>
+        <v>133</v>
       </c>
       <c r="F19" s="20" t="s">
-        <v>190</v>
+        <v>181</v>
       </c>
       <c r="G19" s="8" t="s">
-        <v>189</v>
+        <v>180</v>
       </c>
       <c r="H19" s="15"/>
     </row>
@@ -3374,19 +3323,19 @@
         <v>14</v>
       </c>
       <c r="C20" s="10" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="D20" s="7" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>191</v>
+        <v>182</v>
       </c>
       <c r="F20" s="20" t="s">
-        <v>193</v>
+        <v>184</v>
       </c>
       <c r="G20" s="8" t="s">
-        <v>192</v>
+        <v>183</v>
       </c>
       <c r="H20" s="15"/>
     </row>
@@ -3395,19 +3344,19 @@
         <v>15</v>
       </c>
       <c r="C21" s="10" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="D21" s="7" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="F21" s="20" t="s">
-        <v>157</v>
+        <v>151</v>
       </c>
       <c r="G21" s="8" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
     </row>
     <row r="22" spans="2:8" ht="63" x14ac:dyDescent="0.4">
@@ -3415,19 +3364,19 @@
         <v>16</v>
       </c>
       <c r="C22" s="10" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="D22" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="E22" s="7" t="s">
         <v>36</v>
       </c>
-      <c r="E22" s="7" t="s">
-        <v>39</v>
-      </c>
       <c r="F22" s="20" t="s">
-        <v>158</v>
+        <v>152</v>
       </c>
       <c r="G22" s="8" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
     </row>
     <row r="23" spans="2:8" ht="78.75" x14ac:dyDescent="0.4">
@@ -3435,16 +3384,16 @@
         <v>17</v>
       </c>
       <c r="C23" s="10" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="D23" s="7" t="s">
         <v>20</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>126</v>
+        <v>120</v>
       </c>
       <c r="F23" s="20" t="s">
-        <v>159</v>
+        <v>153</v>
       </c>
       <c r="G23" s="8" t="s">
         <v>21</v>
@@ -3455,7 +3404,7 @@
         <v>18</v>
       </c>
       <c r="C24" s="10" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="D24" s="7" t="s">
         <v>22</v>
@@ -3464,7 +3413,7 @@
         <v>23</v>
       </c>
       <c r="F24" s="20" t="s">
-        <v>160</v>
+        <v>154</v>
       </c>
       <c r="G24" s="8" t="s">
         <v>24</v>
@@ -3475,19 +3424,19 @@
         <v>19</v>
       </c>
       <c r="C25" s="10" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="D25" s="7" t="s">
         <v>22</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>123</v>
+        <v>25</v>
       </c>
       <c r="F25" s="20" t="s">
-        <v>161</v>
+        <v>155</v>
       </c>
       <c r="G25" s="8" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="26" spans="2:8" ht="63" x14ac:dyDescent="0.4">
@@ -3495,19 +3444,19 @@
         <v>20</v>
       </c>
       <c r="C26" s="10" t="s">
+        <v>98</v>
+      </c>
+      <c r="D26" s="20" t="s">
+        <v>7</v>
+      </c>
+      <c r="E26" s="7" t="s">
+        <v>115</v>
+      </c>
+      <c r="F26" s="20" t="s">
+        <v>156</v>
+      </c>
+      <c r="G26" s="20" t="s">
         <v>101</v>
-      </c>
-      <c r="D26" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="E26" s="7" t="s">
-        <v>124</v>
-      </c>
-      <c r="F26" s="20" t="s">
-        <v>162</v>
-      </c>
-      <c r="G26" s="8" t="s">
-        <v>26</v>
       </c>
     </row>
     <row r="27" spans="2:8" ht="78.75" x14ac:dyDescent="0.4">
@@ -3515,59 +3464,59 @@
         <v>21</v>
       </c>
       <c r="C27" s="10" t="s">
-        <v>101</v>
-      </c>
-      <c r="D27" s="7" t="s">
-        <v>22</v>
+        <v>98</v>
+      </c>
+      <c r="D27" s="20" t="s">
+        <v>7</v>
       </c>
       <c r="E27" s="7" t="s">
-        <v>125</v>
+        <v>116</v>
       </c>
       <c r="F27" s="20" t="s">
-        <v>163</v>
-      </c>
-      <c r="G27" s="8" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="28" spans="2:8" ht="63" x14ac:dyDescent="0.4">
+        <v>157</v>
+      </c>
+      <c r="G27" s="20" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="28" spans="2:8" ht="78.75" x14ac:dyDescent="0.4">
       <c r="B28" s="22">
         <v>22</v>
       </c>
       <c r="C28" s="10" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="D28" s="7" t="s">
-        <v>22</v>
+        <v>7</v>
       </c>
       <c r="E28" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="F28" s="20" t="s">
+        <v>158</v>
+      </c>
+      <c r="G28" s="8" t="s">
         <v>28</v>
       </c>
-      <c r="F28" s="20" t="s">
-        <v>164</v>
-      </c>
-      <c r="G28" s="8" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="29" spans="2:8" ht="63" x14ac:dyDescent="0.4">
+    </row>
+    <row r="29" spans="2:8" ht="78.75" x14ac:dyDescent="0.4">
       <c r="B29" s="22">
         <v>23</v>
       </c>
       <c r="C29" s="10" t="s">
-        <v>101</v>
-      </c>
-      <c r="D29" s="20" t="s">
+        <v>98</v>
+      </c>
+      <c r="D29" s="7" t="s">
         <v>7</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="F29" s="20" t="s">
-        <v>165</v>
-      </c>
-      <c r="G29" s="20" t="s">
-        <v>104</v>
+        <v>159</v>
+      </c>
+      <c r="G29" s="8" t="s">
+        <v>29</v>
       </c>
     </row>
     <row r="30" spans="2:8" ht="78.75" x14ac:dyDescent="0.4">
@@ -3575,19 +3524,19 @@
         <v>24</v>
       </c>
       <c r="C30" s="10" t="s">
-        <v>101</v>
-      </c>
-      <c r="D30" s="20" t="s">
+        <v>98</v>
+      </c>
+      <c r="D30" s="7" t="s">
         <v>7</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="F30" s="20" t="s">
-        <v>166</v>
-      </c>
-      <c r="G30" s="20" t="s">
-        <v>8</v>
+        <v>160</v>
+      </c>
+      <c r="G30" s="8" t="s">
+        <v>30</v>
       </c>
     </row>
     <row r="31" spans="2:8" ht="78.75" x14ac:dyDescent="0.4">
@@ -3595,16 +3544,16 @@
         <v>25</v>
       </c>
       <c r="C31" s="10" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="D31" s="7" t="s">
         <v>7</v>
       </c>
       <c r="E31" s="7" t="s">
-        <v>30</v>
+        <v>114</v>
       </c>
       <c r="F31" s="20" t="s">
-        <v>167</v>
+        <v>161</v>
       </c>
       <c r="G31" s="8" t="s">
         <v>31</v>
@@ -3615,19 +3564,19 @@
         <v>26</v>
       </c>
       <c r="C32" s="10" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="D32" s="7" t="s">
         <v>7</v>
       </c>
       <c r="E32" s="7" t="s">
-        <v>120</v>
+        <v>38</v>
       </c>
       <c r="F32" s="20" t="s">
-        <v>168</v>
+        <v>162</v>
       </c>
       <c r="G32" s="8" t="s">
-        <v>32</v>
+        <v>178</v>
       </c>
     </row>
     <row r="33" spans="1:8" ht="78.75" x14ac:dyDescent="0.4">
@@ -3635,19 +3584,19 @@
         <v>27</v>
       </c>
       <c r="C33" s="10" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="D33" s="7" t="s">
         <v>7</v>
       </c>
       <c r="E33" s="7" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="F33" s="20" t="s">
-        <v>169</v>
+        <v>163</v>
       </c>
       <c r="G33" s="8" t="s">
-        <v>33</v>
+        <v>39</v>
       </c>
     </row>
     <row r="34" spans="1:8" ht="78.75" x14ac:dyDescent="0.4">
@@ -3655,19 +3604,19 @@
         <v>28</v>
       </c>
       <c r="C34" s="10" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="D34" s="7" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="E34" s="7" t="s">
-        <v>117</v>
+        <v>12</v>
       </c>
       <c r="F34" s="20" t="s">
-        <v>170</v>
+        <v>164</v>
       </c>
       <c r="G34" s="8" t="s">
-        <v>34</v>
+        <v>13</v>
       </c>
     </row>
     <row r="35" spans="1:8" ht="78.75" x14ac:dyDescent="0.4">
@@ -3675,19 +3624,19 @@
         <v>29</v>
       </c>
       <c r="C35" s="10" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="D35" s="7" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="E35" s="7" t="s">
-        <v>41</v>
+        <v>14</v>
       </c>
       <c r="F35" s="20" t="s">
-        <v>171</v>
+        <v>165</v>
       </c>
       <c r="G35" s="8" t="s">
-        <v>187</v>
+        <v>15</v>
       </c>
     </row>
     <row r="36" spans="1:8" ht="78.75" x14ac:dyDescent="0.4">
@@ -3695,19 +3644,19 @@
         <v>30</v>
       </c>
       <c r="C36" s="10" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="D36" s="7" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="E36" s="7" t="s">
-        <v>122</v>
+        <v>16</v>
       </c>
       <c r="F36" s="20" t="s">
-        <v>172</v>
+        <v>166</v>
       </c>
       <c r="G36" s="8" t="s">
-        <v>42</v>
+        <v>17</v>
       </c>
     </row>
     <row r="37" spans="1:8" ht="78.75" x14ac:dyDescent="0.4">
@@ -3715,19 +3664,19 @@
         <v>31</v>
       </c>
       <c r="C37" s="10" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="D37" s="7" t="s">
         <v>11</v>
       </c>
       <c r="E37" s="7" t="s">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="F37" s="20" t="s">
-        <v>173</v>
+        <v>167</v>
       </c>
       <c r="G37" s="8" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
     </row>
     <row r="38" spans="1:8" ht="78.75" x14ac:dyDescent="0.4">
@@ -3735,19 +3684,19 @@
         <v>32</v>
       </c>
       <c r="C38" s="10" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="D38" s="7" t="s">
-        <v>11</v>
+        <v>109</v>
       </c>
       <c r="E38" s="7" t="s">
-        <v>14</v>
+        <v>110</v>
       </c>
       <c r="F38" s="20" t="s">
-        <v>174</v>
+        <v>168</v>
       </c>
       <c r="G38" s="8" t="s">
-        <v>15</v>
+        <v>112</v>
       </c>
     </row>
     <row r="39" spans="1:8" ht="78.75" x14ac:dyDescent="0.4">
@@ -3755,19 +3704,19 @@
         <v>33</v>
       </c>
       <c r="C39" s="10" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="D39" s="7" t="s">
-        <v>11</v>
+        <v>109</v>
       </c>
       <c r="E39" s="7" t="s">
-        <v>16</v>
+        <v>108</v>
       </c>
       <c r="F39" s="20" t="s">
-        <v>175</v>
+        <v>169</v>
       </c>
       <c r="G39" s="8" t="s">
-        <v>17</v>
+        <v>111</v>
       </c>
     </row>
     <row r="40" spans="1:8" ht="78.75" x14ac:dyDescent="0.4">
@@ -3775,131 +3724,80 @@
         <v>34</v>
       </c>
       <c r="C40" s="10" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="D40" s="7" t="s">
-        <v>11</v>
+        <v>109</v>
       </c>
       <c r="E40" s="7" t="s">
-        <v>18</v>
+        <v>105</v>
       </c>
       <c r="F40" s="20" t="s">
-        <v>176</v>
+        <v>170</v>
       </c>
       <c r="G40" s="8" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="41" spans="1:8" ht="78.75" x14ac:dyDescent="0.4">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="41" spans="1:8" ht="63" x14ac:dyDescent="0.4">
       <c r="B41" s="22">
         <v>35</v>
       </c>
       <c r="C41" s="10" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="D41" s="7" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="E41" s="7" t="s">
-        <v>113</v>
-      </c>
-      <c r="F41" s="20" t="s">
-        <v>177</v>
+        <v>134</v>
+      </c>
+      <c r="F41" s="8" t="s">
+        <v>171</v>
       </c>
       <c r="G41" s="8" t="s">
-        <v>115</v>
-      </c>
+        <v>179</v>
+      </c>
+      <c r="H41" s="15"/>
     </row>
     <row r="42" spans="1:8" ht="78.75" x14ac:dyDescent="0.4">
       <c r="B42" s="22">
         <v>36</v>
       </c>
       <c r="C42" s="10" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="D42" s="7" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="E42" s="7" t="s">
-        <v>111</v>
-      </c>
-      <c r="F42" s="20" t="s">
-        <v>178</v>
+        <v>135</v>
+      </c>
+      <c r="F42" s="8" t="s">
+        <v>173</v>
       </c>
       <c r="G42" s="8" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="43" spans="1:8" ht="78.75" x14ac:dyDescent="0.4">
-      <c r="B43" s="22">
-        <v>37</v>
-      </c>
-      <c r="C43" s="10" t="s">
-        <v>101</v>
-      </c>
-      <c r="D43" s="7" t="s">
-        <v>112</v>
-      </c>
-      <c r="E43" s="7" t="s">
-        <v>108</v>
-      </c>
-      <c r="F43" s="20" t="s">
-        <v>179</v>
-      </c>
-      <c r="G43" s="8" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="44" spans="1:8" ht="63" x14ac:dyDescent="0.4">
-      <c r="B44" s="22">
-        <v>38</v>
-      </c>
-      <c r="C44" s="10" t="s">
-        <v>101</v>
-      </c>
-      <c r="D44" s="7" t="s">
-        <v>112</v>
-      </c>
-      <c r="E44" s="7" t="s">
-        <v>140</v>
-      </c>
-      <c r="F44" s="8" t="s">
-        <v>180</v>
-      </c>
-      <c r="G44" s="8" t="s">
-        <v>188</v>
-      </c>
-      <c r="H44" s="15"/>
-    </row>
-    <row r="45" spans="1:8" ht="78.75" x14ac:dyDescent="0.4">
-      <c r="B45" s="22">
-        <v>39</v>
-      </c>
-      <c r="C45" s="10" t="s">
-        <v>101</v>
-      </c>
-      <c r="D45" s="7" t="s">
-        <v>112</v>
-      </c>
-      <c r="E45" s="7" t="s">
-        <v>141</v>
-      </c>
-      <c r="F45" s="8" t="s">
-        <v>182</v>
-      </c>
-      <c r="G45" s="8" t="s">
-        <v>142</v>
-      </c>
-      <c r="H45" s="15"/>
+        <v>136</v>
+      </c>
+      <c r="H42" s="15"/>
+    </row>
+    <row r="43" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A43" s="1"/>
+      <c r="F43" s="21"/>
+      <c r="G43" s="1"/>
+    </row>
+    <row r="44" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A44" s="1"/>
+      <c r="B44" s="14"/>
+    </row>
+    <row r="45" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A45" s="1"/>
     </row>
     <row r="46" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A46" s="1"/>
-      <c r="F46" s="21"/>
-      <c r="G46" s="1"/>
     </row>
     <row r="47" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A47" s="1"/>
-      <c r="B47" s="14"/>
     </row>
     <row r="48" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A48" s="1"/>
@@ -3946,17 +3844,8 @@
     <row r="62" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A62" s="1"/>
     </row>
-    <row r="63" spans="1:1" x14ac:dyDescent="0.4">
-      <c r="A63" s="1"/>
-    </row>
-    <row r="64" spans="1:1" x14ac:dyDescent="0.4">
-      <c r="A64" s="1"/>
-    </row>
-    <row r="65" spans="1:1" x14ac:dyDescent="0.4">
-      <c r="A65" s="1"/>
-    </row>
   </sheetData>
-  <autoFilter ref="C6:G40"/>
+  <autoFilter ref="C6:G37"/>
   <sortState ref="B7:F42">
     <sortCondition ref="B42"/>
   </sortState>
@@ -3988,7 +3877,7 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A1" s="3" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="B1" s="3" t="s">
         <v>0</v>
@@ -3996,154 +3885,154 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A2" s="4" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A3" s="4" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A4" s="4" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A5" s="4" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A6" s="4" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A7" s="4" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A8" s="4" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A9" s="4" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A10" s="4" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A11" s="4" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="B11" s="4" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A12" s="4" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="B12" s="4" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A13" s="4" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="B13" s="4" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A14" s="6" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="B14" s="4" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A15" s="6" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="B15" s="4" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A16" s="6" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="B16" s="4" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A17" s="6" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="B17" s="4" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A18" s="6" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="B18" s="4" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A19" s="6" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="B19" s="4" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A20" s="4" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="B20" s="4" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
     </row>
   </sheetData>
@@ -4173,72 +4062,72 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A1" s="3" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="D1" s="3" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
     </row>
     <row r="2" spans="1:4" ht="31.5" x14ac:dyDescent="0.4">
       <c r="A2" s="5" t="s">
+        <v>90</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>91</v>
+      </c>
+      <c r="C2" s="4" t="s">
+        <v>92</v>
+      </c>
+      <c r="D2" s="4" t="s">
         <v>93</v>
-      </c>
-      <c r="B2" s="4" t="s">
-        <v>94</v>
-      </c>
-      <c r="C2" s="4" t="s">
-        <v>95</v>
-      </c>
-      <c r="D2" s="4" t="s">
-        <v>96</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A3" s="5" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="D3" s="4" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A4" s="5" t="s">
+        <v>84</v>
+      </c>
+      <c r="B4" s="4" t="s">
         <v>87</v>
       </c>
-      <c r="B4" s="4" t="s">
-        <v>90</v>
-      </c>
       <c r="C4" s="4" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="D4" s="4" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
     </row>
     <row r="5" spans="1:4" ht="47.25" x14ac:dyDescent="0.4">
       <c r="A5" s="5" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="D5" s="5" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
     </row>
   </sheetData>

--- a/asset/Documents_ja/Exastro-ITA_【参考】登録サービス一覧.xlsx
+++ b/asset/Documents_ja/Exastro-ITA_【参考】登録サービス一覧.xlsx
@@ -2,14 +2,9 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr codeName="ThisWorkbook" defaultThemeVersion="164011"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\10.197.19.188\KY-Share\★個人フォルダ★\藤田すずこ\ITA\ドキュメント\ITA導入支援\レビュー後_20210310\プルリク用\20210318\mail\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
+  <workbookPr filterPrivacy="1" codeName="ThisWorkbook" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="24000" windowHeight="10815" tabRatio="566"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="18315" windowHeight="9465" tabRatio="566"/>
   </bookViews>
   <sheets>
     <sheet name="登録サービス一覧" sheetId="12" r:id="rId1"/>

--- a/asset/Documents_ja/Exastro-ITA_【参考】登録サービス一覧.xlsx
+++ b/asset/Documents_ja/Exastro-ITA_【参考】登録サービス一覧.xlsx
@@ -2,14 +2,9 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr codeName="ThisWorkbook" defaultThemeVersion="164011"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Users\000001A00ABHY\Desktop\mail\GitHub\個人用(it-automation-docs)\it-automation-docs_matsuo\asset\Documents_ja\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
+  <workbookPr filterPrivacy="1" codeName="ThisWorkbook" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="24000" windowHeight="10815" tabRatio="566"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="18315" windowHeight="9465" tabRatio="566"/>
   </bookViews>
   <sheets>
     <sheet name="登録サービス一覧" sheetId="12" r:id="rId1"/>

--- a/asset/Documents_ja/Exastro-ITA_【参考】登録サービス一覧.xlsx
+++ b/asset/Documents_ja/Exastro-ITA_【参考】登録サービス一覧.xlsx
@@ -15,9 +15,9 @@
     <externalReference r:id="rId4"/>
   </externalReferences>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">登録サービス一覧!$C$6:$G$43</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">登録サービス一覧!$C$6:$G$44</definedName>
     <definedName name="FILTER_PARENT_DIR_ID">[1]マスタ!$G$2:$G$289</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">登録サービス一覧!$A$1:$G$42</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">登録サービス一覧!$A$1:$G$43</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="0">登録サービス一覧!$6:$6</definedName>
   </definedNames>
   <calcPr calcId="162913"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="250" uniqueCount="185">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="255" uniqueCount="188">
   <si>
     <t>概要</t>
     <rPh sb="0" eb="2">
@@ -998,6 +998,21 @@
   </si>
   <si>
     <t>/bin/sh /(ITAインストールディレクトリ)/ita-root/backyards/common/ky_loopcall-php-procedure.sh /bin/php /bin/php /(ITAインストールディレクトリ)/ita-root/backyards/ita_base/ky_create_er-workflow.php</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ky_bulk_excel-workflow.service</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>/bin/sh /(ITAインストールディレクトリ)/ita-root/backyards/common/ky_loopcall-php-procedure.sh /bin/php /bin/php /(ITAインストールディレクトリ)/ita-root/backyards/ita_base/ky_bulk_excel-workflow.php</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Excel一括エクスポート/インポート実行</t>
+    <rPh sb="5" eb="7">
+      <t>イッカツ</t>
+    </rPh>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -2964,11 +2979,11 @@
   <sheetPr codeName="Sheet1">
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:H62"/>
+  <dimension ref="A1:H63"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane ySplit="6" topLeftCell="A7" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft"/>
+      <pane ySplit="6" topLeftCell="A16" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B19" sqref="B19:B43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.4"/>
@@ -3342,17 +3357,18 @@
         <v>98</v>
       </c>
       <c r="D21" s="7" t="s">
-        <v>33</v>
+        <v>40</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>34</v>
+        <v>185</v>
       </c>
       <c r="F21" s="20" t="s">
-        <v>151</v>
+        <v>186</v>
       </c>
       <c r="G21" s="8" t="s">
-        <v>35</v>
-      </c>
+        <v>187</v>
+      </c>
+      <c r="H21" s="15"/>
     </row>
     <row r="22" spans="2:8" ht="63" x14ac:dyDescent="0.4">
       <c r="B22" s="22">
@@ -3365,16 +3381,16 @@
         <v>33</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="F22" s="20" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="G22" s="8" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="23" spans="2:8" ht="78.75" x14ac:dyDescent="0.4">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="23" spans="2:8" ht="63" x14ac:dyDescent="0.4">
       <c r="B23" s="22">
         <v>17</v>
       </c>
@@ -3382,19 +3398,19 @@
         <v>98</v>
       </c>
       <c r="D23" s="7" t="s">
-        <v>20</v>
+        <v>33</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>120</v>
+        <v>36</v>
       </c>
       <c r="F23" s="20" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="G23" s="8" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="24" spans="2:8" ht="63" x14ac:dyDescent="0.4">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="24" spans="2:8" ht="78.75" x14ac:dyDescent="0.4">
       <c r="B24" s="22">
         <v>18</v>
       </c>
@@ -3402,16 +3418,16 @@
         <v>98</v>
       </c>
       <c r="D24" s="7" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>23</v>
+        <v>120</v>
       </c>
       <c r="F24" s="20" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="G24" s="8" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
     </row>
     <row r="25" spans="2:8" ht="63" x14ac:dyDescent="0.4">
@@ -3425,13 +3441,13 @@
         <v>22</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="F25" s="20" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="G25" s="8" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
     </row>
     <row r="26" spans="2:8" ht="63" x14ac:dyDescent="0.4">
@@ -3441,20 +3457,20 @@
       <c r="C26" s="10" t="s">
         <v>98</v>
       </c>
-      <c r="D26" s="20" t="s">
-        <v>7</v>
+      <c r="D26" s="7" t="s">
+        <v>22</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>115</v>
+        <v>25</v>
       </c>
       <c r="F26" s="20" t="s">
-        <v>156</v>
-      </c>
-      <c r="G26" s="20" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="27" spans="2:8" ht="78.75" x14ac:dyDescent="0.4">
+        <v>155</v>
+      </c>
+      <c r="G26" s="8" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="27" spans="2:8" ht="63" x14ac:dyDescent="0.4">
       <c r="B27" s="22">
         <v>21</v>
       </c>
@@ -3465,13 +3481,13 @@
         <v>7</v>
       </c>
       <c r="E27" s="7" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="F27" s="20" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="G27" s="20" t="s">
-        <v>8</v>
+        <v>101</v>
       </c>
     </row>
     <row r="28" spans="2:8" ht="78.75" x14ac:dyDescent="0.4">
@@ -3481,17 +3497,17 @@
       <c r="C28" s="10" t="s">
         <v>98</v>
       </c>
-      <c r="D28" s="7" t="s">
+      <c r="D28" s="20" t="s">
         <v>7</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>27</v>
+        <v>116</v>
       </c>
       <c r="F28" s="20" t="s">
-        <v>158</v>
-      </c>
-      <c r="G28" s="8" t="s">
-        <v>28</v>
+        <v>157</v>
+      </c>
+      <c r="G28" s="20" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="29" spans="2:8" ht="78.75" x14ac:dyDescent="0.4">
@@ -3505,13 +3521,13 @@
         <v>7</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>117</v>
+        <v>27</v>
       </c>
       <c r="F29" s="20" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="G29" s="8" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="30" spans="2:8" ht="78.75" x14ac:dyDescent="0.4">
@@ -3525,13 +3541,13 @@
         <v>7</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="F30" s="20" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="G30" s="8" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="31" spans="2:8" ht="78.75" x14ac:dyDescent="0.4">
@@ -3545,13 +3561,13 @@
         <v>7</v>
       </c>
       <c r="E31" s="7" t="s">
-        <v>114</v>
+        <v>118</v>
       </c>
       <c r="F31" s="20" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="G31" s="8" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="32" spans="2:8" ht="78.75" x14ac:dyDescent="0.4">
@@ -3565,13 +3581,13 @@
         <v>7</v>
       </c>
       <c r="E32" s="7" t="s">
-        <v>38</v>
+        <v>114</v>
       </c>
       <c r="F32" s="20" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="G32" s="8" t="s">
-        <v>178</v>
+        <v>31</v>
       </c>
     </row>
     <row r="33" spans="1:8" ht="78.75" x14ac:dyDescent="0.4">
@@ -3585,13 +3601,13 @@
         <v>7</v>
       </c>
       <c r="E33" s="7" t="s">
-        <v>119</v>
+        <v>38</v>
       </c>
       <c r="F33" s="20" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="G33" s="8" t="s">
-        <v>39</v>
+        <v>178</v>
       </c>
     </row>
     <row r="34" spans="1:8" ht="78.75" x14ac:dyDescent="0.4">
@@ -3602,16 +3618,16 @@
         <v>98</v>
       </c>
       <c r="D34" s="7" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="E34" s="7" t="s">
-        <v>12</v>
+        <v>119</v>
       </c>
       <c r="F34" s="20" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="G34" s="8" t="s">
-        <v>13</v>
+        <v>39</v>
       </c>
     </row>
     <row r="35" spans="1:8" ht="78.75" x14ac:dyDescent="0.4">
@@ -3625,13 +3641,13 @@
         <v>11</v>
       </c>
       <c r="E35" s="7" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="F35" s="20" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="G35" s="8" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="36" spans="1:8" ht="78.75" x14ac:dyDescent="0.4">
@@ -3645,13 +3661,13 @@
         <v>11</v>
       </c>
       <c r="E36" s="7" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="F36" s="20" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="G36" s="8" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
     </row>
     <row r="37" spans="1:8" ht="78.75" x14ac:dyDescent="0.4">
@@ -3665,13 +3681,13 @@
         <v>11</v>
       </c>
       <c r="E37" s="7" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="F37" s="20" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="G37" s="8" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
     </row>
     <row r="38" spans="1:8" ht="78.75" x14ac:dyDescent="0.4">
@@ -3682,16 +3698,16 @@
         <v>98</v>
       </c>
       <c r="D38" s="7" t="s">
-        <v>109</v>
+        <v>11</v>
       </c>
       <c r="E38" s="7" t="s">
-        <v>110</v>
+        <v>18</v>
       </c>
       <c r="F38" s="20" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="G38" s="8" t="s">
-        <v>112</v>
+        <v>19</v>
       </c>
     </row>
     <row r="39" spans="1:8" ht="78.75" x14ac:dyDescent="0.4">
@@ -3705,13 +3721,13 @@
         <v>109</v>
       </c>
       <c r="E39" s="7" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="F39" s="20" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="G39" s="8" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
     </row>
     <row r="40" spans="1:8" ht="78.75" x14ac:dyDescent="0.4">
@@ -3725,16 +3741,16 @@
         <v>109</v>
       </c>
       <c r="E40" s="7" t="s">
-        <v>105</v>
+        <v>108</v>
       </c>
       <c r="F40" s="20" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="G40" s="8" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="41" spans="1:8" ht="63" x14ac:dyDescent="0.4">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="41" spans="1:8" ht="78.75" x14ac:dyDescent="0.4">
       <c r="B41" s="22">
         <v>35</v>
       </c>
@@ -3745,17 +3761,16 @@
         <v>109</v>
       </c>
       <c r="E41" s="7" t="s">
-        <v>134</v>
-      </c>
-      <c r="F41" s="8" t="s">
-        <v>171</v>
+        <v>105</v>
+      </c>
+      <c r="F41" s="20" t="s">
+        <v>170</v>
       </c>
       <c r="G41" s="8" t="s">
-        <v>179</v>
-      </c>
-      <c r="H41" s="15"/>
-    </row>
-    <row r="42" spans="1:8" ht="78.75" x14ac:dyDescent="0.4">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="42" spans="1:8" ht="63" x14ac:dyDescent="0.4">
       <c r="B42" s="22">
         <v>36</v>
       </c>
@@ -3766,27 +3781,45 @@
         <v>109</v>
       </c>
       <c r="E42" s="7" t="s">
+        <v>134</v>
+      </c>
+      <c r="F42" s="8" t="s">
+        <v>171</v>
+      </c>
+      <c r="G42" s="8" t="s">
+        <v>179</v>
+      </c>
+      <c r="H42" s="15"/>
+    </row>
+    <row r="43" spans="1:8" ht="78.75" x14ac:dyDescent="0.4">
+      <c r="B43" s="22">
+        <v>37</v>
+      </c>
+      <c r="C43" s="10" t="s">
+        <v>98</v>
+      </c>
+      <c r="D43" s="7" t="s">
+        <v>109</v>
+      </c>
+      <c r="E43" s="7" t="s">
         <v>135</v>
       </c>
-      <c r="F42" s="8" t="s">
+      <c r="F43" s="8" t="s">
         <v>173</v>
       </c>
-      <c r="G42" s="8" t="s">
+      <c r="G43" s="8" t="s">
         <v>136</v>
       </c>
-      <c r="H42" s="15"/>
-    </row>
-    <row r="43" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A43" s="1"/>
-      <c r="F43" s="21"/>
-      <c r="G43" s="1"/>
+      <c r="H43" s="15"/>
     </row>
     <row r="44" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A44" s="1"/>
-      <c r="B44" s="14"/>
+      <c r="F44" s="21"/>
+      <c r="G44" s="1"/>
     </row>
     <row r="45" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A45" s="1"/>
+      <c r="B45" s="14"/>
     </row>
     <row r="46" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A46" s="1"/>
@@ -3839,8 +3872,11 @@
     <row r="62" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A62" s="1"/>
     </row>
+    <row r="63" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A63" s="1"/>
+    </row>
   </sheetData>
-  <autoFilter ref="C6:G37"/>
+  <autoFilter ref="C6:G38"/>
   <sortState ref="B7:F42">
     <sortCondition ref="B42"/>
   </sortState>

--- a/asset/Documents_ja/Exastro-ITA_【参考】登録サービス一覧.xlsx
+++ b/asset/Documents_ja/Exastro-ITA_【参考】登録サービス一覧.xlsx
@@ -957,10 +957,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>Ver1.6</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>変数自動登録
 pioneerの代入値紐付を元に代入値管理を更新</t>
     <phoneticPr fontId="1"/>
@@ -1013,6 +1009,10 @@
     <rPh sb="5" eb="7">
       <t>イッカツ</t>
     </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Ver1.8</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -2983,7 +2983,7 @@
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <pane ySplit="6" topLeftCell="A16" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B19" sqref="B19:B43"/>
+      <selection pane="bottomLeft" activeCell="G2" sqref="G2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.4"/>
@@ -3008,7 +3008,7 @@
       <c r="E1" s="9"/>
       <c r="F1" s="19"/>
       <c r="G1" s="12" t="s">
-        <v>177</v>
+        <v>187</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.4">
@@ -3321,10 +3321,10 @@
         <v>133</v>
       </c>
       <c r="F19" s="20" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="G19" s="8" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="H19" s="15"/>
     </row>
@@ -3339,13 +3339,13 @@
         <v>40</v>
       </c>
       <c r="E20" s="7" t="s">
+        <v>181</v>
+      </c>
+      <c r="F20" s="20" t="s">
+        <v>183</v>
+      </c>
+      <c r="G20" s="8" t="s">
         <v>182</v>
-      </c>
-      <c r="F20" s="20" t="s">
-        <v>184</v>
-      </c>
-      <c r="G20" s="8" t="s">
-        <v>183</v>
       </c>
       <c r="H20" s="15"/>
     </row>
@@ -3360,13 +3360,13 @@
         <v>40</v>
       </c>
       <c r="E21" s="7" t="s">
+        <v>184</v>
+      </c>
+      <c r="F21" s="20" t="s">
         <v>185</v>
       </c>
-      <c r="F21" s="20" t="s">
+      <c r="G21" s="8" t="s">
         <v>186</v>
-      </c>
-      <c r="G21" s="8" t="s">
-        <v>187</v>
       </c>
       <c r="H21" s="15"/>
     </row>
@@ -3607,7 +3607,7 @@
         <v>162</v>
       </c>
       <c r="G33" s="8" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
     </row>
     <row r="34" spans="1:8" ht="78.75" x14ac:dyDescent="0.4">
@@ -3787,7 +3787,7 @@
         <v>171</v>
       </c>
       <c r="G42" s="8" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="H42" s="15"/>
     </row>

--- a/asset/Documents_ja/Exastro-ITA_【参考】登録サービス一覧.xlsx
+++ b/asset/Documents_ja/Exastro-ITA_【参考】登録サービス一覧.xlsx
@@ -15,9 +15,9 @@
     <externalReference r:id="rId4"/>
   </externalReferences>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">登録サービス一覧!$C$6:$G$44</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">登録サービス一覧!$C$6:$G$41</definedName>
     <definedName name="FILTER_PARENT_DIR_ID">[1]マスタ!$G$2:$G$289</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">登録サービス一覧!$A$1:$G$43</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">登録サービス一覧!$A$1:$G$40</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="0">登録サービス一覧!$6:$6</definedName>
   </definedNames>
   <calcPr calcId="162913"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="255" uniqueCount="188">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="240" uniqueCount="179">
   <si>
     <t>概要</t>
     <rPh sb="0" eb="2">
@@ -220,28 +220,6 @@
     <t>メール送信</t>
   </si>
   <si>
-    <t>material</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>ky_material_linkage_ansible.service</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>資材自動連携機能(Ansible)
-資材管理メニューで管理している資材をAnsible-driverメニューに自動連携する。</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>ky_material_management.service</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>自動払出払戻機能
-資材管理に登録されたデータに対して、Git連携を行い資材の払出・払戻を行う。</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>ky_pioneer_valautostup-workflow.service</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -757,10 +735,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>ky_material_linkage_terraform.service</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>ky_terraform_valautosetup-workflow.service</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -835,12 +809,6 @@
     <t>/bin/sh /(ITAインストールディレクトリ)/ita-root/backyards/common/ky_loopcall-php-procedure.sh /bin/php /bin/php /(ITAインストールディレクトリ)/ita-root/backyards/ita_base/ky_std_synchronize-Conductor.php</t>
   </si>
   <si>
-    <t>/bin/sh /(ITAインストールディレクトリ)/ita-root/backyards/common/ky_loopcall-php-procedure.sh /bin/php /bin/php /(ITAインストールディレクトリ)/ita-root/backyards/material/ky_material_linkage_ansible.php</t>
-  </si>
-  <si>
-    <t>/bin/sh /(ITAインストールディレクトリ)/ita-root/backyards/common/ky_loopcall-php-procedure.sh /bin/php /bin/php /(ITAインストールディレクトリ)/ita-root/backyards/material/ky_material_management.php</t>
-  </si>
-  <si>
     <t>/bin/sh /(ITAインストールディレクトリ)/ita-root/backyards/common/ky_loopcall-php-procedure.sh /bin/php /bin/php /(ITAインストールディレクトリ)/ita-root/backyards/create_param_menu/ky_create_param_menu_execute.php</t>
   </si>
   <si>
@@ -893,9 +861,6 @@
   </si>
   <si>
     <t>/bin/sh /(ITAインストールディレクトリ)/ita-root/backyards/common/ky_loopcall-php-procedure.sh /bin/php /bin/php /(ITAインストールディレクトリ)/ita-root/backyards/terraform_driver/ky_terraform_varsautolistup-workflow.php</t>
-  </si>
-  <si>
-    <t>/bin/sh /(ITAインストールディレクトリ)/ita-root/backyards/common/ky_loopcall-php-procedure.sh /bin/php /bin/php /(ITAインストールディレクトリ)/ita-root/backyards/material/ky_material_linkage_terraform.php</t>
   </si>
   <si>
     <t>/bin/sh /(ITAインストールディレクトリ)/ita-root/backyards/common/ky_loopcall-php-procedure.sh /bin/php /bin/php /(ITAインストールディレクトリ)/ita-root/backyards/create_param_menu/ky_change_col_to_row.php</t>
@@ -957,13 +922,12 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
+    <t>Ver1.6</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
     <t>変数自動登録
 pioneerの代入値紐付を元に代入値管理を更新</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>資材自動連携機能
-資材管理メニューで管理している資材を Terraform-driver メニューに自動連携する。</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
@@ -997,22 +961,25 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>ky_bulk_excel-workflow.service</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>/bin/sh /(ITAインストールディレクトリ)/ita-root/backyards/common/ky_loopcall-php-procedure.sh /bin/php /bin/php /(ITAインストールディレクトリ)/ita-root/backyards/ita_base/ky_bulk_excel-workflow.php</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>Excel一括エクスポート/インポート実行</t>
-    <rPh sb="5" eb="7">
-      <t>イッカツ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>Ver1.8</t>
+    <t>ky_CICD_for_IaC_git_synchronize-workflow.service</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>/bin/sh /(ITAインストールディレクトリ)/ita-root/backyards/common/ky_loopcall-php-procedure.sh /bin/php /bin/php /(ITAインストールディレクトリ)/ita-root/backyards/CICD_for_IaC/ky_CICD_for_IaC_git_synchronize-workflow.php</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>cicd_for_iac</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>CI/CD For IaC機能
+・ITA内にGitリポジトリのクローンを作成します。
+・クローンを介して定期的にGitリポジトリ内の資材の更新を検知します。
+・Gitリポジトリの資材と紐付先機能(Ansible-DriverまたはTerraform-Driver)で管理する資材との紐付を設定します。</t>
+    <rPh sb="13" eb="15">
+      <t>キノウ</t>
+    </rPh>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -2979,11 +2946,11 @@
   <sheetPr codeName="Sheet1">
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:H63"/>
+  <dimension ref="A1:H60"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane ySplit="6" topLeftCell="A16" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G2" sqref="G2"/>
+    <sheetView showGridLines="0" tabSelected="1" view="pageBreakPreview" zoomScale="60" zoomScaleNormal="85" workbookViewId="0">
+      <pane ySplit="6" topLeftCell="A39" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="G45" sqref="G45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.4"/>
@@ -3000,7 +2967,7 @@
   <sheetData>
     <row r="1" spans="1:7" ht="21" x14ac:dyDescent="0.4">
       <c r="A1" s="18" t="s">
-        <v>137</v>
+        <v>131</v>
       </c>
       <c r="B1" s="16"/>
       <c r="C1" s="9"/>
@@ -3008,7 +2975,7 @@
       <c r="E1" s="9"/>
       <c r="F1" s="19"/>
       <c r="G1" s="12" t="s">
-        <v>187</v>
+        <v>168</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.4">
@@ -3021,7 +2988,7 @@
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.4">
       <c r="B3" s="13" t="s">
-        <v>176</v>
+        <v>167</v>
       </c>
       <c r="C3" s="9"/>
       <c r="D3" s="9"/>
@@ -3031,7 +2998,7 @@
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.4">
       <c r="B4" s="13" t="s">
-        <v>175</v>
+        <v>166</v>
       </c>
       <c r="C4" s="9"/>
       <c r="D4" s="9"/>
@@ -3049,22 +3016,22 @@
     </row>
     <row r="6" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B6" s="23" t="s">
-        <v>141</v>
+        <v>135</v>
       </c>
       <c r="C6" s="23" t="s">
-        <v>104</v>
+        <v>99</v>
       </c>
       <c r="D6" s="24" t="s">
-        <v>138</v>
+        <v>132</v>
       </c>
       <c r="E6" s="23" t="s">
-        <v>139</v>
+        <v>133</v>
       </c>
       <c r="F6" s="24" t="s">
-        <v>174</v>
+        <v>165</v>
       </c>
       <c r="G6" s="23" t="s">
-        <v>140</v>
+        <v>134</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.4">
@@ -3072,16 +3039,16 @@
         <v>1</v>
       </c>
       <c r="C7" s="10" t="s">
-        <v>100</v>
+        <v>95</v>
       </c>
       <c r="D7" s="7" t="s">
-        <v>99</v>
+        <v>94</v>
       </c>
       <c r="E7" s="7" t="s">
         <v>2</v>
       </c>
       <c r="F7" s="8" t="s">
-        <v>132</v>
+        <v>127</v>
       </c>
       <c r="G7" s="8" t="s">
         <v>3</v>
@@ -3092,16 +3059,16 @@
         <v>2</v>
       </c>
       <c r="C8" s="25" t="s">
-        <v>100</v>
+        <v>95</v>
       </c>
       <c r="D8" s="7" t="s">
-        <v>99</v>
+        <v>94</v>
       </c>
       <c r="E8" s="7" t="s">
         <v>4</v>
       </c>
       <c r="F8" s="8" t="s">
-        <v>131</v>
+        <v>126</v>
       </c>
       <c r="G8" s="8" t="s">
         <v>5</v>
@@ -3112,16 +3079,16 @@
         <v>3</v>
       </c>
       <c r="C9" s="10" t="s">
-        <v>98</v>
+        <v>93</v>
       </c>
       <c r="D9" s="7" t="s">
         <v>1</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>122</v>
+        <v>117</v>
       </c>
       <c r="F9" s="8" t="s">
-        <v>142</v>
+        <v>136</v>
       </c>
       <c r="G9" s="8" t="s">
         <v>6</v>
@@ -3132,16 +3099,16 @@
         <v>4</v>
       </c>
       <c r="C10" s="10" t="s">
-        <v>98</v>
+        <v>93</v>
       </c>
       <c r="D10" s="7" t="s">
         <v>1</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>121</v>
+        <v>116</v>
       </c>
       <c r="F10" s="20" t="s">
-        <v>172</v>
+        <v>163</v>
       </c>
       <c r="G10" s="8" t="s">
         <v>9</v>
@@ -3152,16 +3119,16 @@
         <v>5</v>
       </c>
       <c r="C11" s="10" t="s">
-        <v>98</v>
+        <v>93</v>
       </c>
       <c r="D11" s="7" t="s">
         <v>1</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>123</v>
+        <v>118</v>
       </c>
       <c r="F11" s="20" t="s">
-        <v>143</v>
+        <v>137</v>
       </c>
       <c r="G11" s="8" t="s">
         <v>10</v>
@@ -3172,19 +3139,19 @@
         <v>6</v>
       </c>
       <c r="C12" s="10" t="s">
-        <v>98</v>
+        <v>93</v>
       </c>
       <c r="D12" s="7" t="s">
         <v>1</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>124</v>
+        <v>119</v>
       </c>
       <c r="F12" s="20" t="s">
-        <v>144</v>
+        <v>138</v>
       </c>
       <c r="G12" s="8" t="s">
-        <v>103</v>
+        <v>98</v>
       </c>
     </row>
     <row r="13" spans="1:7" ht="47.25" x14ac:dyDescent="0.4">
@@ -3192,16 +3159,16 @@
         <v>7</v>
       </c>
       <c r="C13" s="10" t="s">
-        <v>98</v>
+        <v>93</v>
       </c>
       <c r="D13" s="7" t="s">
         <v>1</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>125</v>
+        <v>120</v>
       </c>
       <c r="F13" s="20" t="s">
-        <v>145</v>
+        <v>139</v>
       </c>
       <c r="G13" s="20" t="s">
         <v>32</v>
@@ -3212,19 +3179,19 @@
         <v>8</v>
       </c>
       <c r="C14" s="10" t="s">
-        <v>98</v>
+        <v>93</v>
       </c>
       <c r="D14" s="26" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="E14" s="26" t="s">
-        <v>126</v>
+        <v>121</v>
       </c>
       <c r="F14" s="20" t="s">
-        <v>146</v>
+        <v>140</v>
       </c>
       <c r="G14" s="20" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
     </row>
     <row r="15" spans="1:7" ht="63" x14ac:dyDescent="0.4">
@@ -3232,19 +3199,19 @@
         <v>9</v>
       </c>
       <c r="C15" s="10" t="s">
-        <v>98</v>
+        <v>93</v>
       </c>
       <c r="D15" s="7" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>127</v>
+        <v>122</v>
       </c>
       <c r="F15" s="20" t="s">
-        <v>147</v>
+        <v>141</v>
       </c>
       <c r="G15" s="8" t="s">
-        <v>102</v>
+        <v>97</v>
       </c>
     </row>
     <row r="16" spans="1:7" ht="63" x14ac:dyDescent="0.4">
@@ -3252,19 +3219,19 @@
         <v>10</v>
       </c>
       <c r="C16" s="10" t="s">
-        <v>98</v>
+        <v>93</v>
       </c>
       <c r="D16" s="7" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>128</v>
+        <v>123</v>
       </c>
       <c r="F16" s="20" t="s">
-        <v>148</v>
+        <v>142</v>
       </c>
       <c r="G16" s="8" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
     </row>
     <row r="17" spans="2:8" ht="63" x14ac:dyDescent="0.4">
@@ -3272,19 +3239,19 @@
         <v>11</v>
       </c>
       <c r="C17" s="10" t="s">
-        <v>98</v>
+        <v>93</v>
       </c>
       <c r="D17" s="7" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>129</v>
+        <v>124</v>
       </c>
       <c r="F17" s="20" t="s">
-        <v>149</v>
+        <v>143</v>
       </c>
       <c r="G17" s="8" t="s">
-        <v>106</v>
+        <v>101</v>
       </c>
     </row>
     <row r="18" spans="2:8" ht="63" x14ac:dyDescent="0.4">
@@ -3292,19 +3259,19 @@
         <v>12</v>
       </c>
       <c r="C18" s="10" t="s">
-        <v>98</v>
+        <v>93</v>
       </c>
       <c r="D18" s="7" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>130</v>
+        <v>125</v>
       </c>
       <c r="F18" s="20" t="s">
-        <v>150</v>
+        <v>144</v>
       </c>
       <c r="G18" s="8" t="s">
-        <v>107</v>
+        <v>102</v>
       </c>
     </row>
     <row r="19" spans="2:8" ht="63" x14ac:dyDescent="0.4">
@@ -3312,19 +3279,19 @@
         <v>13</v>
       </c>
       <c r="C19" s="10" t="s">
-        <v>98</v>
+        <v>93</v>
       </c>
       <c r="D19" s="7" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>133</v>
+        <v>128</v>
       </c>
       <c r="F19" s="20" t="s">
-        <v>180</v>
+        <v>171</v>
       </c>
       <c r="G19" s="8" t="s">
-        <v>179</v>
+        <v>170</v>
       </c>
       <c r="H19" s="15"/>
     </row>
@@ -3333,61 +3300,60 @@
         <v>14</v>
       </c>
       <c r="C20" s="10" t="s">
-        <v>98</v>
+        <v>93</v>
       </c>
       <c r="D20" s="7" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>181</v>
+        <v>172</v>
       </c>
       <c r="F20" s="20" t="s">
-        <v>183</v>
+        <v>174</v>
       </c>
       <c r="G20" s="8" t="s">
-        <v>182</v>
+        <v>173</v>
       </c>
       <c r="H20" s="15"/>
     </row>
-    <row r="21" spans="2:8" ht="63" x14ac:dyDescent="0.4">
+    <row r="21" spans="2:8" ht="78.75" x14ac:dyDescent="0.4">
       <c r="B21" s="22">
         <v>15</v>
       </c>
       <c r="C21" s="10" t="s">
-        <v>98</v>
+        <v>93</v>
       </c>
       <c r="D21" s="7" t="s">
-        <v>40</v>
+        <v>20</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>184</v>
+        <v>115</v>
       </c>
       <c r="F21" s="20" t="s">
-        <v>185</v>
+        <v>145</v>
       </c>
       <c r="G21" s="8" t="s">
-        <v>186</v>
-      </c>
-      <c r="H21" s="15"/>
+        <v>21</v>
+      </c>
     </row>
     <row r="22" spans="2:8" ht="63" x14ac:dyDescent="0.4">
       <c r="B22" s="22">
         <v>16</v>
       </c>
       <c r="C22" s="10" t="s">
-        <v>98</v>
+        <v>93</v>
       </c>
       <c r="D22" s="7" t="s">
-        <v>33</v>
+        <v>22</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>34</v>
+        <v>23</v>
       </c>
       <c r="F22" s="20" t="s">
-        <v>151</v>
+        <v>146</v>
       </c>
       <c r="G22" s="8" t="s">
-        <v>35</v>
+        <v>24</v>
       </c>
     </row>
     <row r="23" spans="2:8" ht="63" x14ac:dyDescent="0.4">
@@ -3395,99 +3361,99 @@
         <v>17</v>
       </c>
       <c r="C23" s="10" t="s">
-        <v>98</v>
+        <v>93</v>
       </c>
       <c r="D23" s="7" t="s">
-        <v>33</v>
+        <v>22</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>36</v>
+        <v>25</v>
       </c>
       <c r="F23" s="20" t="s">
-        <v>152</v>
+        <v>147</v>
       </c>
       <c r="G23" s="8" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="24" spans="2:8" ht="78.75" x14ac:dyDescent="0.4">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="24" spans="2:8" ht="63" x14ac:dyDescent="0.4">
       <c r="B24" s="22">
         <v>18</v>
       </c>
       <c r="C24" s="10" t="s">
-        <v>98</v>
-      </c>
-      <c r="D24" s="7" t="s">
-        <v>20</v>
+        <v>93</v>
+      </c>
+      <c r="D24" s="20" t="s">
+        <v>7</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>120</v>
+        <v>110</v>
       </c>
       <c r="F24" s="20" t="s">
-        <v>153</v>
-      </c>
-      <c r="G24" s="8" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="25" spans="2:8" ht="63" x14ac:dyDescent="0.4">
+        <v>148</v>
+      </c>
+      <c r="G24" s="20" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="25" spans="2:8" ht="78.75" x14ac:dyDescent="0.4">
       <c r="B25" s="22">
         <v>19</v>
       </c>
       <c r="C25" s="10" t="s">
-        <v>98</v>
-      </c>
-      <c r="D25" s="7" t="s">
-        <v>22</v>
+        <v>93</v>
+      </c>
+      <c r="D25" s="20" t="s">
+        <v>7</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>23</v>
+        <v>111</v>
       </c>
       <c r="F25" s="20" t="s">
-        <v>154</v>
-      </c>
-      <c r="G25" s="8" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="26" spans="2:8" ht="63" x14ac:dyDescent="0.4">
+        <v>149</v>
+      </c>
+      <c r="G25" s="20" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="26" spans="2:8" ht="78.75" x14ac:dyDescent="0.4">
       <c r="B26" s="22">
         <v>20</v>
       </c>
       <c r="C26" s="10" t="s">
-        <v>98</v>
+        <v>93</v>
       </c>
       <c r="D26" s="7" t="s">
-        <v>22</v>
+        <v>7</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="F26" s="20" t="s">
-        <v>155</v>
+        <v>150</v>
       </c>
       <c r="G26" s="8" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="27" spans="2:8" ht="63" x14ac:dyDescent="0.4">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="27" spans="2:8" ht="78.75" x14ac:dyDescent="0.4">
       <c r="B27" s="22">
         <v>21</v>
       </c>
       <c r="C27" s="10" t="s">
-        <v>98</v>
-      </c>
-      <c r="D27" s="20" t="s">
+        <v>93</v>
+      </c>
+      <c r="D27" s="7" t="s">
         <v>7</v>
       </c>
       <c r="E27" s="7" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="F27" s="20" t="s">
-        <v>156</v>
-      </c>
-      <c r="G27" s="20" t="s">
-        <v>101</v>
+        <v>151</v>
+      </c>
+      <c r="G27" s="8" t="s">
+        <v>29</v>
       </c>
     </row>
     <row r="28" spans="2:8" ht="78.75" x14ac:dyDescent="0.4">
@@ -3495,19 +3461,19 @@
         <v>22</v>
       </c>
       <c r="C28" s="10" t="s">
-        <v>98</v>
-      </c>
-      <c r="D28" s="20" t="s">
+        <v>93</v>
+      </c>
+      <c r="D28" s="7" t="s">
         <v>7</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="F28" s="20" t="s">
-        <v>157</v>
-      </c>
-      <c r="G28" s="20" t="s">
-        <v>8</v>
+        <v>152</v>
+      </c>
+      <c r="G28" s="8" t="s">
+        <v>30</v>
       </c>
     </row>
     <row r="29" spans="2:8" ht="78.75" x14ac:dyDescent="0.4">
@@ -3515,19 +3481,19 @@
         <v>23</v>
       </c>
       <c r="C29" s="10" t="s">
-        <v>98</v>
+        <v>93</v>
       </c>
       <c r="D29" s="7" t="s">
         <v>7</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>27</v>
+        <v>109</v>
       </c>
       <c r="F29" s="20" t="s">
-        <v>158</v>
+        <v>153</v>
       </c>
       <c r="G29" s="8" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
     </row>
     <row r="30" spans="2:8" ht="78.75" x14ac:dyDescent="0.4">
@@ -3535,19 +3501,19 @@
         <v>24</v>
       </c>
       <c r="C30" s="10" t="s">
-        <v>98</v>
+        <v>93</v>
       </c>
       <c r="D30" s="7" t="s">
         <v>7</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>117</v>
+        <v>33</v>
       </c>
       <c r="F30" s="20" t="s">
-        <v>159</v>
+        <v>154</v>
       </c>
       <c r="G30" s="8" t="s">
-        <v>29</v>
+        <v>169</v>
       </c>
     </row>
     <row r="31" spans="2:8" ht="78.75" x14ac:dyDescent="0.4">
@@ -3555,19 +3521,19 @@
         <v>25</v>
       </c>
       <c r="C31" s="10" t="s">
-        <v>98</v>
+        <v>93</v>
       </c>
       <c r="D31" s="7" t="s">
         <v>7</v>
       </c>
       <c r="E31" s="7" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
       <c r="F31" s="20" t="s">
-        <v>160</v>
+        <v>155</v>
       </c>
       <c r="G31" s="8" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
     </row>
     <row r="32" spans="2:8" ht="78.75" x14ac:dyDescent="0.4">
@@ -3575,19 +3541,19 @@
         <v>26</v>
       </c>
       <c r="C32" s="10" t="s">
-        <v>98</v>
+        <v>93</v>
       </c>
       <c r="D32" s="7" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="E32" s="7" t="s">
-        <v>114</v>
+        <v>12</v>
       </c>
       <c r="F32" s="20" t="s">
-        <v>161</v>
+        <v>156</v>
       </c>
       <c r="G32" s="8" t="s">
-        <v>31</v>
+        <v>13</v>
       </c>
     </row>
     <row r="33" spans="1:8" ht="78.75" x14ac:dyDescent="0.4">
@@ -3595,19 +3561,19 @@
         <v>27</v>
       </c>
       <c r="C33" s="10" t="s">
-        <v>98</v>
+        <v>93</v>
       </c>
       <c r="D33" s="7" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="E33" s="7" t="s">
-        <v>38</v>
+        <v>14</v>
       </c>
       <c r="F33" s="20" t="s">
-        <v>162</v>
+        <v>157</v>
       </c>
       <c r="G33" s="8" t="s">
-        <v>177</v>
+        <v>15</v>
       </c>
     </row>
     <row r="34" spans="1:8" ht="78.75" x14ac:dyDescent="0.4">
@@ -3615,19 +3581,19 @@
         <v>28</v>
       </c>
       <c r="C34" s="10" t="s">
-        <v>98</v>
+        <v>93</v>
       </c>
       <c r="D34" s="7" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="E34" s="7" t="s">
-        <v>119</v>
+        <v>16</v>
       </c>
       <c r="F34" s="20" t="s">
-        <v>163</v>
+        <v>158</v>
       </c>
       <c r="G34" s="8" t="s">
-        <v>39</v>
+        <v>17</v>
       </c>
     </row>
     <row r="35" spans="1:8" ht="78.75" x14ac:dyDescent="0.4">
@@ -3635,19 +3601,19 @@
         <v>29</v>
       </c>
       <c r="C35" s="10" t="s">
-        <v>98</v>
+        <v>93</v>
       </c>
       <c r="D35" s="7" t="s">
         <v>11</v>
       </c>
       <c r="E35" s="7" t="s">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="F35" s="20" t="s">
-        <v>164</v>
+        <v>159</v>
       </c>
       <c r="G35" s="8" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
     </row>
     <row r="36" spans="1:8" ht="78.75" x14ac:dyDescent="0.4">
@@ -3655,19 +3621,19 @@
         <v>30</v>
       </c>
       <c r="C36" s="10" t="s">
-        <v>98</v>
+        <v>93</v>
       </c>
       <c r="D36" s="7" t="s">
-        <v>11</v>
+        <v>104</v>
       </c>
       <c r="E36" s="7" t="s">
-        <v>14</v>
+        <v>105</v>
       </c>
       <c r="F36" s="20" t="s">
-        <v>165</v>
+        <v>160</v>
       </c>
       <c r="G36" s="8" t="s">
-        <v>15</v>
+        <v>107</v>
       </c>
     </row>
     <row r="37" spans="1:8" ht="78.75" x14ac:dyDescent="0.4">
@@ -3675,19 +3641,19 @@
         <v>31</v>
       </c>
       <c r="C37" s="10" t="s">
-        <v>98</v>
+        <v>93</v>
       </c>
       <c r="D37" s="7" t="s">
-        <v>11</v>
+        <v>104</v>
       </c>
       <c r="E37" s="7" t="s">
-        <v>16</v>
+        <v>103</v>
       </c>
       <c r="F37" s="20" t="s">
-        <v>166</v>
+        <v>161</v>
       </c>
       <c r="G37" s="8" t="s">
-        <v>17</v>
+        <v>106</v>
       </c>
     </row>
     <row r="38" spans="1:8" ht="78.75" x14ac:dyDescent="0.4">
@@ -3695,19 +3661,19 @@
         <v>32</v>
       </c>
       <c r="C38" s="10" t="s">
-        <v>98</v>
+        <v>93</v>
       </c>
       <c r="D38" s="7" t="s">
-        <v>11</v>
+        <v>104</v>
       </c>
       <c r="E38" s="7" t="s">
-        <v>18</v>
+        <v>100</v>
       </c>
       <c r="F38" s="20" t="s">
-        <v>167</v>
+        <v>162</v>
       </c>
       <c r="G38" s="8" t="s">
-        <v>19</v>
+        <v>108</v>
       </c>
     </row>
     <row r="39" spans="1:8" ht="78.75" x14ac:dyDescent="0.4">
@@ -3715,111 +3681,60 @@
         <v>33</v>
       </c>
       <c r="C39" s="10" t="s">
-        <v>98</v>
+        <v>93</v>
       </c>
       <c r="D39" s="7" t="s">
-        <v>109</v>
+        <v>104</v>
       </c>
       <c r="E39" s="7" t="s">
-        <v>110</v>
-      </c>
-      <c r="F39" s="20" t="s">
-        <v>168</v>
+        <v>129</v>
+      </c>
+      <c r="F39" s="8" t="s">
+        <v>164</v>
       </c>
       <c r="G39" s="8" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="40" spans="1:8" ht="78.75" x14ac:dyDescent="0.4">
+        <v>130</v>
+      </c>
+      <c r="H39" s="15"/>
+    </row>
+    <row r="40" spans="1:8" ht="94.5" x14ac:dyDescent="0.4">
       <c r="B40" s="22">
         <v>34</v>
       </c>
       <c r="C40" s="10" t="s">
-        <v>98</v>
+        <v>93</v>
       </c>
       <c r="D40" s="7" t="s">
-        <v>109</v>
+        <v>177</v>
       </c>
       <c r="E40" s="7" t="s">
-        <v>108</v>
-      </c>
-      <c r="F40" s="20" t="s">
-        <v>169</v>
+        <v>175</v>
+      </c>
+      <c r="F40" s="8" t="s">
+        <v>176</v>
       </c>
       <c r="G40" s="8" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="41" spans="1:8" ht="78.75" x14ac:dyDescent="0.4">
-      <c r="B41" s="22">
-        <v>35</v>
-      </c>
-      <c r="C41" s="10" t="s">
-        <v>98</v>
-      </c>
-      <c r="D41" s="7" t="s">
-        <v>109</v>
-      </c>
-      <c r="E41" s="7" t="s">
-        <v>105</v>
-      </c>
-      <c r="F41" s="20" t="s">
-        <v>170</v>
-      </c>
-      <c r="G41" s="8" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="42" spans="1:8" ht="63" x14ac:dyDescent="0.4">
-      <c r="B42" s="22">
-        <v>36</v>
-      </c>
-      <c r="C42" s="10" t="s">
-        <v>98</v>
-      </c>
-      <c r="D42" s="7" t="s">
-        <v>109</v>
-      </c>
-      <c r="E42" s="7" t="s">
-        <v>134</v>
-      </c>
-      <c r="F42" s="8" t="s">
-        <v>171</v>
-      </c>
-      <c r="G42" s="8" t="s">
         <v>178</v>
       </c>
-      <c r="H42" s="15"/>
-    </row>
-    <row r="43" spans="1:8" ht="78.75" x14ac:dyDescent="0.4">
-      <c r="B43" s="22">
-        <v>37</v>
-      </c>
-      <c r="C43" s="10" t="s">
-        <v>98</v>
-      </c>
-      <c r="D43" s="7" t="s">
-        <v>109</v>
-      </c>
-      <c r="E43" s="7" t="s">
-        <v>135</v>
-      </c>
-      <c r="F43" s="8" t="s">
-        <v>173</v>
-      </c>
-      <c r="G43" s="8" t="s">
-        <v>136</v>
-      </c>
-      <c r="H43" s="15"/>
+      <c r="H40" s="15"/>
+    </row>
+    <row r="41" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A41" s="1"/>
+      <c r="F41" s="21"/>
+      <c r="G41" s="1"/>
+    </row>
+    <row r="42" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A42" s="1"/>
+      <c r="B42" s="14"/>
+    </row>
+    <row r="43" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A43" s="1"/>
     </row>
     <row r="44" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A44" s="1"/>
-      <c r="F44" s="21"/>
-      <c r="G44" s="1"/>
     </row>
     <row r="45" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A45" s="1"/>
-      <c r="B45" s="14"/>
     </row>
     <row r="46" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A46" s="1"/>
@@ -3866,17 +3781,8 @@
     <row r="60" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A60" s="1"/>
     </row>
-    <row r="61" spans="1:1" x14ac:dyDescent="0.4">
-      <c r="A61" s="1"/>
-    </row>
-    <row r="62" spans="1:1" x14ac:dyDescent="0.4">
-      <c r="A62" s="1"/>
-    </row>
-    <row r="63" spans="1:1" x14ac:dyDescent="0.4">
-      <c r="A63" s="1"/>
-    </row>
   </sheetData>
-  <autoFilter ref="C6:G38"/>
+  <autoFilter ref="C6:G35"/>
   <sortState ref="B7:F42">
     <sortCondition ref="B42"/>
   </sortState>
@@ -3908,7 +3814,7 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A1" s="3" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="B1" s="3" t="s">
         <v>0</v>
@@ -3916,154 +3822,154 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A2" s="4" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A3" s="4" t="s">
-        <v>46</v>
+        <v>41</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>47</v>
+        <v>42</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A4" s="4" t="s">
-        <v>48</v>
+        <v>43</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>49</v>
+        <v>44</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A5" s="4" t="s">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>51</v>
+        <v>46</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A6" s="4" t="s">
-        <v>52</v>
+        <v>47</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>53</v>
+        <v>48</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A7" s="4" t="s">
-        <v>54</v>
+        <v>49</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>55</v>
+        <v>50</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A8" s="4" t="s">
-        <v>56</v>
+        <v>51</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>57</v>
+        <v>52</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A9" s="4" t="s">
-        <v>58</v>
+        <v>53</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>59</v>
+        <v>54</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A10" s="4" t="s">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>61</v>
+        <v>56</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A11" s="4" t="s">
-        <v>62</v>
+        <v>57</v>
       </c>
       <c r="B11" s="4" t="s">
-        <v>63</v>
+        <v>58</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A12" s="4" t="s">
-        <v>64</v>
+        <v>59</v>
       </c>
       <c r="B12" s="4" t="s">
-        <v>65</v>
+        <v>60</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A13" s="4" t="s">
-        <v>66</v>
+        <v>61</v>
       </c>
       <c r="B13" s="4" t="s">
-        <v>67</v>
+        <v>62</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A14" s="6" t="s">
-        <v>68</v>
+        <v>63</v>
       </c>
       <c r="B14" s="4" t="s">
-        <v>69</v>
+        <v>64</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A15" s="6" t="s">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="B15" s="4" t="s">
-        <v>71</v>
+        <v>66</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A16" s="6" t="s">
-        <v>72</v>
+        <v>67</v>
       </c>
       <c r="B16" s="4" t="s">
-        <v>73</v>
+        <v>68</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A17" s="6" t="s">
-        <v>74</v>
+        <v>69</v>
       </c>
       <c r="B17" s="4" t="s">
-        <v>75</v>
+        <v>70</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A18" s="6" t="s">
-        <v>76</v>
+        <v>71</v>
       </c>
       <c r="B18" s="4" t="s">
-        <v>77</v>
+        <v>72</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A19" s="6" t="s">
-        <v>78</v>
+        <v>73</v>
       </c>
       <c r="B19" s="4" t="s">
-        <v>79</v>
+        <v>74</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A20" s="4" t="s">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="B20" s="4" t="s">
-        <v>81</v>
+        <v>76</v>
       </c>
     </row>
   </sheetData>
@@ -4093,72 +3999,72 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A1" s="3" t="s">
-        <v>82</v>
+        <v>77</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>83</v>
+        <v>78</v>
       </c>
       <c r="D1" s="3" t="s">
-        <v>89</v>
+        <v>84</v>
       </c>
     </row>
     <row r="2" spans="1:4" ht="31.5" x14ac:dyDescent="0.4">
       <c r="A2" s="5" t="s">
-        <v>90</v>
+        <v>85</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>91</v>
+        <v>86</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>92</v>
+        <v>87</v>
       </c>
       <c r="D2" s="4" t="s">
-        <v>93</v>
+        <v>88</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A3" s="5" t="s">
-        <v>84</v>
+        <v>79</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>85</v>
+        <v>80</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>86</v>
+        <v>81</v>
       </c>
       <c r="D3" s="4" t="s">
-        <v>94</v>
+        <v>89</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A4" s="5" t="s">
-        <v>84</v>
+        <v>79</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>87</v>
+        <v>82</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>88</v>
+        <v>83</v>
       </c>
       <c r="D4" s="4" t="s">
-        <v>94</v>
+        <v>89</v>
       </c>
     </row>
     <row r="5" spans="1:4" ht="47.25" x14ac:dyDescent="0.4">
       <c r="A5" s="5" t="s">
-        <v>95</v>
+        <v>90</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>96</v>
+        <v>91</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>97</v>
+        <v>92</v>
       </c>
       <c r="D5" s="5" t="s">
-        <v>94</v>
+        <v>89</v>
       </c>
     </row>
   </sheetData>

--- a/asset/Documents_ja/Exastro-ITA_【参考】登録サービス一覧.xlsx
+++ b/asset/Documents_ja/Exastro-ITA_【参考】登録サービス一覧.xlsx
@@ -922,10 +922,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>Ver1.6</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>変数自動登録
 pioneerの代入値紐付を元に代入値管理を更新</t>
     <phoneticPr fontId="1"/>
@@ -980,6 +976,10 @@
     <rPh sb="13" eb="15">
       <t>キノウ</t>
     </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Ver1.8</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -2949,8 +2949,8 @@
   <dimension ref="A1:H60"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" view="pageBreakPreview" zoomScale="60" zoomScaleNormal="85" workbookViewId="0">
-      <pane ySplit="6" topLeftCell="A39" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G45" sqref="G45"/>
+      <pane ySplit="6" topLeftCell="A7" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="G2" sqref="G2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.4"/>
@@ -2975,7 +2975,7 @@
       <c r="E1" s="9"/>
       <c r="F1" s="19"/>
       <c r="G1" s="12" t="s">
-        <v>168</v>
+        <v>178</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.4">
@@ -3288,10 +3288,10 @@
         <v>128</v>
       </c>
       <c r="F19" s="20" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="G19" s="8" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="H19" s="15"/>
     </row>
@@ -3306,13 +3306,13 @@
         <v>35</v>
       </c>
       <c r="E20" s="7" t="s">
+        <v>171</v>
+      </c>
+      <c r="F20" s="20" t="s">
+        <v>173</v>
+      </c>
+      <c r="G20" s="8" t="s">
         <v>172</v>
-      </c>
-      <c r="F20" s="20" t="s">
-        <v>174</v>
-      </c>
-      <c r="G20" s="8" t="s">
-        <v>173</v>
       </c>
       <c r="H20" s="15"/>
     </row>
@@ -3513,7 +3513,7 @@
         <v>154</v>
       </c>
       <c r="G30" s="8" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
     </row>
     <row r="31" spans="2:8" ht="78.75" x14ac:dyDescent="0.4">
@@ -3705,16 +3705,16 @@
         <v>93</v>
       </c>
       <c r="D40" s="7" t="s">
+        <v>176</v>
+      </c>
+      <c r="E40" s="7" t="s">
+        <v>174</v>
+      </c>
+      <c r="F40" s="8" t="s">
+        <v>175</v>
+      </c>
+      <c r="G40" s="8" t="s">
         <v>177</v>
-      </c>
-      <c r="E40" s="7" t="s">
-        <v>175</v>
-      </c>
-      <c r="F40" s="8" t="s">
-        <v>176</v>
-      </c>
-      <c r="G40" s="8" t="s">
-        <v>178</v>
       </c>
       <c r="H40" s="15"/>
     </row>

--- a/asset/Documents_ja/Exastro-ITA_【参考】登録サービス一覧.xlsx
+++ b/asset/Documents_ja/Exastro-ITA_【参考】登録サービス一覧.xlsx
@@ -15,9 +15,9 @@
     <externalReference r:id="rId4"/>
   </externalReferences>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">登録サービス一覧!$C$6:$G$43</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">登録サービス一覧!$C$6:$G$41</definedName>
     <definedName name="FILTER_PARENT_DIR_ID">[1]マスタ!$G$2:$G$289</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">登録サービス一覧!$A$1:$G$42</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">登録サービス一覧!$A$1:$G$40</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="0">登録サービス一覧!$6:$6</definedName>
   </definedNames>
   <calcPr calcId="162913"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="250" uniqueCount="185">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="240" uniqueCount="179">
   <si>
     <t>概要</t>
     <rPh sb="0" eb="2">
@@ -220,28 +220,6 @@
     <t>メール送信</t>
   </si>
   <si>
-    <t>material</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>ky_material_linkage_ansible.service</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>資材自動連携機能(Ansible)
-資材管理メニューで管理している資材をAnsible-driverメニューに自動連携する。</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>ky_material_management.service</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>自動払出払戻機能
-資材管理に登録されたデータに対して、Git連携を行い資材の払出・払戻を行う。</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>ky_pioneer_valautostup-workflow.service</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -757,10 +735,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>ky_material_linkage_terraform.service</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>ky_terraform_valautosetup-workflow.service</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -835,12 +809,6 @@
     <t>/bin/sh /(ITAインストールディレクトリ)/ita-root/backyards/common/ky_loopcall-php-procedure.sh /bin/php /bin/php /(ITAインストールディレクトリ)/ita-root/backyards/ita_base/ky_std_synchronize-Conductor.php</t>
   </si>
   <si>
-    <t>/bin/sh /(ITAインストールディレクトリ)/ita-root/backyards/common/ky_loopcall-php-procedure.sh /bin/php /bin/php /(ITAインストールディレクトリ)/ita-root/backyards/material/ky_material_linkage_ansible.php</t>
-  </si>
-  <si>
-    <t>/bin/sh /(ITAインストールディレクトリ)/ita-root/backyards/common/ky_loopcall-php-procedure.sh /bin/php /bin/php /(ITAインストールディレクトリ)/ita-root/backyards/material/ky_material_management.php</t>
-  </si>
-  <si>
     <t>/bin/sh /(ITAインストールディレクトリ)/ita-root/backyards/common/ky_loopcall-php-procedure.sh /bin/php /bin/php /(ITAインストールディレクトリ)/ita-root/backyards/create_param_menu/ky_create_param_menu_execute.php</t>
   </si>
   <si>
@@ -893,9 +861,6 @@
   </si>
   <si>
     <t>/bin/sh /(ITAインストールディレクトリ)/ita-root/backyards/common/ky_loopcall-php-procedure.sh /bin/php /bin/php /(ITAインストールディレクトリ)/ita-root/backyards/terraform_driver/ky_terraform_varsautolistup-workflow.php</t>
-  </si>
-  <si>
-    <t>/bin/sh /(ITAインストールディレクトリ)/ita-root/backyards/common/ky_loopcall-php-procedure.sh /bin/php /bin/php /(ITAインストールディレクトリ)/ita-root/backyards/material/ky_material_linkage_terraform.php</t>
   </si>
   <si>
     <t>/bin/sh /(ITAインストールディレクトリ)/ita-root/backyards/common/ky_loopcall-php-procedure.sh /bin/php /bin/php /(ITAインストールディレクトリ)/ita-root/backyards/create_param_menu/ky_change_col_to_row.php</t>
@@ -957,17 +922,8 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>Ver1.6</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>変数自動登録
 pioneerの代入値紐付を元に代入値管理を更新</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>資材自動連携機能
-資材管理メニューで管理している資材を Terraform-driver メニューに自動連携する。</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
@@ -998,6 +954,32 @@
   </si>
   <si>
     <t>/bin/sh /(ITAインストールディレクトリ)/ita-root/backyards/common/ky_loopcall-php-procedure.sh /bin/php /bin/php /(ITAインストールディレクトリ)/ita-root/backyards/ita_base/ky_create_er-workflow.php</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ky_CICD_for_IaC_git_synchronize-workflow.service</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>/bin/sh /(ITAインストールディレクトリ)/ita-root/backyards/common/ky_loopcall-php-procedure.sh /bin/php /bin/php /(ITAインストールディレクトリ)/ita-root/backyards/CICD_for_IaC/ky_CICD_for_IaC_git_synchronize-workflow.php</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>cicd_for_iac</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>CI/CD For IaC機能
+・ITA内にGitリポジトリのクローンを作成します。
+・クローンを介して定期的にGitリポジトリ内の資材の更新を検知します。
+・Gitリポジトリの資材と紐付先機能(Ansible-DriverまたはTerraform-Driver)で管理する資材との紐付を設定します。</t>
+    <rPh sb="13" eb="15">
+      <t>キノウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Ver1.8</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -2964,11 +2946,11 @@
   <sheetPr codeName="Sheet1">
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:H62"/>
+  <dimension ref="A1:H60"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView showGridLines="0" tabSelected="1" view="pageBreakPreview" zoomScale="60" zoomScaleNormal="85" workbookViewId="0">
       <pane ySplit="6" topLeftCell="A7" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft"/>
+      <selection pane="bottomLeft" activeCell="G2" sqref="G2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.4"/>
@@ -2985,7 +2967,7 @@
   <sheetData>
     <row r="1" spans="1:7" ht="21" x14ac:dyDescent="0.4">
       <c r="A1" s="18" t="s">
-        <v>137</v>
+        <v>131</v>
       </c>
       <c r="B1" s="16"/>
       <c r="C1" s="9"/>
@@ -2993,7 +2975,7 @@
       <c r="E1" s="9"/>
       <c r="F1" s="19"/>
       <c r="G1" s="12" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.4">
@@ -3006,7 +2988,7 @@
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.4">
       <c r="B3" s="13" t="s">
-        <v>176</v>
+        <v>167</v>
       </c>
       <c r="C3" s="9"/>
       <c r="D3" s="9"/>
@@ -3016,7 +2998,7 @@
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.4">
       <c r="B4" s="13" t="s">
-        <v>175</v>
+        <v>166</v>
       </c>
       <c r="C4" s="9"/>
       <c r="D4" s="9"/>
@@ -3034,22 +3016,22 @@
     </row>
     <row r="6" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B6" s="23" t="s">
-        <v>141</v>
+        <v>135</v>
       </c>
       <c r="C6" s="23" t="s">
-        <v>104</v>
+        <v>99</v>
       </c>
       <c r="D6" s="24" t="s">
-        <v>138</v>
+        <v>132</v>
       </c>
       <c r="E6" s="23" t="s">
-        <v>139</v>
+        <v>133</v>
       </c>
       <c r="F6" s="24" t="s">
-        <v>174</v>
+        <v>165</v>
       </c>
       <c r="G6" s="23" t="s">
-        <v>140</v>
+        <v>134</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.4">
@@ -3057,16 +3039,16 @@
         <v>1</v>
       </c>
       <c r="C7" s="10" t="s">
-        <v>100</v>
+        <v>95</v>
       </c>
       <c r="D7" s="7" t="s">
-        <v>99</v>
+        <v>94</v>
       </c>
       <c r="E7" s="7" t="s">
         <v>2</v>
       </c>
       <c r="F7" s="8" t="s">
-        <v>132</v>
+        <v>127</v>
       </c>
       <c r="G7" s="8" t="s">
         <v>3</v>
@@ -3077,16 +3059,16 @@
         <v>2</v>
       </c>
       <c r="C8" s="25" t="s">
-        <v>100</v>
+        <v>95</v>
       </c>
       <c r="D8" s="7" t="s">
-        <v>99</v>
+        <v>94</v>
       </c>
       <c r="E8" s="7" t="s">
         <v>4</v>
       </c>
       <c r="F8" s="8" t="s">
-        <v>131</v>
+        <v>126</v>
       </c>
       <c r="G8" s="8" t="s">
         <v>5</v>
@@ -3097,16 +3079,16 @@
         <v>3</v>
       </c>
       <c r="C9" s="10" t="s">
-        <v>98</v>
+        <v>93</v>
       </c>
       <c r="D9" s="7" t="s">
         <v>1</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>122</v>
+        <v>117</v>
       </c>
       <c r="F9" s="8" t="s">
-        <v>142</v>
+        <v>136</v>
       </c>
       <c r="G9" s="8" t="s">
         <v>6</v>
@@ -3117,16 +3099,16 @@
         <v>4</v>
       </c>
       <c r="C10" s="10" t="s">
-        <v>98</v>
+        <v>93</v>
       </c>
       <c r="D10" s="7" t="s">
         <v>1</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>121</v>
+        <v>116</v>
       </c>
       <c r="F10" s="20" t="s">
-        <v>172</v>
+        <v>163</v>
       </c>
       <c r="G10" s="8" t="s">
         <v>9</v>
@@ -3137,16 +3119,16 @@
         <v>5</v>
       </c>
       <c r="C11" s="10" t="s">
-        <v>98</v>
+        <v>93</v>
       </c>
       <c r="D11" s="7" t="s">
         <v>1</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>123</v>
+        <v>118</v>
       </c>
       <c r="F11" s="20" t="s">
-        <v>143</v>
+        <v>137</v>
       </c>
       <c r="G11" s="8" t="s">
         <v>10</v>
@@ -3157,19 +3139,19 @@
         <v>6</v>
       </c>
       <c r="C12" s="10" t="s">
-        <v>98</v>
+        <v>93</v>
       </c>
       <c r="D12" s="7" t="s">
         <v>1</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>124</v>
+        <v>119</v>
       </c>
       <c r="F12" s="20" t="s">
-        <v>144</v>
+        <v>138</v>
       </c>
       <c r="G12" s="8" t="s">
-        <v>103</v>
+        <v>98</v>
       </c>
     </row>
     <row r="13" spans="1:7" ht="47.25" x14ac:dyDescent="0.4">
@@ -3177,16 +3159,16 @@
         <v>7</v>
       </c>
       <c r="C13" s="10" t="s">
-        <v>98</v>
+        <v>93</v>
       </c>
       <c r="D13" s="7" t="s">
         <v>1</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>125</v>
+        <v>120</v>
       </c>
       <c r="F13" s="20" t="s">
-        <v>145</v>
+        <v>139</v>
       </c>
       <c r="G13" s="20" t="s">
         <v>32</v>
@@ -3197,19 +3179,19 @@
         <v>8</v>
       </c>
       <c r="C14" s="10" t="s">
-        <v>98</v>
+        <v>93</v>
       </c>
       <c r="D14" s="26" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="E14" s="26" t="s">
-        <v>126</v>
+        <v>121</v>
       </c>
       <c r="F14" s="20" t="s">
-        <v>146</v>
+        <v>140</v>
       </c>
       <c r="G14" s="20" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
     </row>
     <row r="15" spans="1:7" ht="63" x14ac:dyDescent="0.4">
@@ -3217,19 +3199,19 @@
         <v>9</v>
       </c>
       <c r="C15" s="10" t="s">
-        <v>98</v>
+        <v>93</v>
       </c>
       <c r="D15" s="7" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>127</v>
+        <v>122</v>
       </c>
       <c r="F15" s="20" t="s">
-        <v>147</v>
+        <v>141</v>
       </c>
       <c r="G15" s="8" t="s">
-        <v>102</v>
+        <v>97</v>
       </c>
     </row>
     <row r="16" spans="1:7" ht="63" x14ac:dyDescent="0.4">
@@ -3237,19 +3219,19 @@
         <v>10</v>
       </c>
       <c r="C16" s="10" t="s">
-        <v>98</v>
+        <v>93</v>
       </c>
       <c r="D16" s="7" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>128</v>
+        <v>123</v>
       </c>
       <c r="F16" s="20" t="s">
-        <v>148</v>
+        <v>142</v>
       </c>
       <c r="G16" s="8" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
     </row>
     <row r="17" spans="2:8" ht="63" x14ac:dyDescent="0.4">
@@ -3257,19 +3239,19 @@
         <v>11</v>
       </c>
       <c r="C17" s="10" t="s">
-        <v>98</v>
+        <v>93</v>
       </c>
       <c r="D17" s="7" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>129</v>
+        <v>124</v>
       </c>
       <c r="F17" s="20" t="s">
-        <v>149</v>
+        <v>143</v>
       </c>
       <c r="G17" s="8" t="s">
-        <v>106</v>
+        <v>101</v>
       </c>
     </row>
     <row r="18" spans="2:8" ht="63" x14ac:dyDescent="0.4">
@@ -3277,19 +3259,19 @@
         <v>12</v>
       </c>
       <c r="C18" s="10" t="s">
-        <v>98</v>
+        <v>93</v>
       </c>
       <c r="D18" s="7" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>130</v>
+        <v>125</v>
       </c>
       <c r="F18" s="20" t="s">
-        <v>150</v>
+        <v>144</v>
       </c>
       <c r="G18" s="8" t="s">
-        <v>107</v>
+        <v>102</v>
       </c>
     </row>
     <row r="19" spans="2:8" ht="63" x14ac:dyDescent="0.4">
@@ -3297,19 +3279,19 @@
         <v>13</v>
       </c>
       <c r="C19" s="10" t="s">
-        <v>98</v>
+        <v>93</v>
       </c>
       <c r="D19" s="7" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>133</v>
+        <v>128</v>
       </c>
       <c r="F19" s="20" t="s">
-        <v>181</v>
+        <v>170</v>
       </c>
       <c r="G19" s="8" t="s">
-        <v>180</v>
+        <v>169</v>
       </c>
       <c r="H19" s="15"/>
     </row>
@@ -3318,40 +3300,40 @@
         <v>14</v>
       </c>
       <c r="C20" s="10" t="s">
-        <v>98</v>
+        <v>93</v>
       </c>
       <c r="D20" s="7" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>182</v>
+        <v>171</v>
       </c>
       <c r="F20" s="20" t="s">
-        <v>184</v>
+        <v>173</v>
       </c>
       <c r="G20" s="8" t="s">
-        <v>183</v>
+        <v>172</v>
       </c>
       <c r="H20" s="15"/>
     </row>
-    <row r="21" spans="2:8" ht="63" x14ac:dyDescent="0.4">
+    <row r="21" spans="2:8" ht="78.75" x14ac:dyDescent="0.4">
       <c r="B21" s="22">
         <v>15</v>
       </c>
       <c r="C21" s="10" t="s">
-        <v>98</v>
+        <v>93</v>
       </c>
       <c r="D21" s="7" t="s">
-        <v>33</v>
+        <v>20</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>34</v>
+        <v>115</v>
       </c>
       <c r="F21" s="20" t="s">
-        <v>151</v>
+        <v>145</v>
       </c>
       <c r="G21" s="8" t="s">
-        <v>35</v>
+        <v>21</v>
       </c>
     </row>
     <row r="22" spans="2:8" ht="63" x14ac:dyDescent="0.4">
@@ -3359,39 +3341,39 @@
         <v>16</v>
       </c>
       <c r="C22" s="10" t="s">
-        <v>98</v>
+        <v>93</v>
       </c>
       <c r="D22" s="7" t="s">
-        <v>33</v>
+        <v>22</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>36</v>
+        <v>23</v>
       </c>
       <c r="F22" s="20" t="s">
-        <v>152</v>
+        <v>146</v>
       </c>
       <c r="G22" s="8" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="23" spans="2:8" ht="78.75" x14ac:dyDescent="0.4">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="23" spans="2:8" ht="63" x14ac:dyDescent="0.4">
       <c r="B23" s="22">
         <v>17</v>
       </c>
       <c r="C23" s="10" t="s">
-        <v>98</v>
+        <v>93</v>
       </c>
       <c r="D23" s="7" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>120</v>
+        <v>25</v>
       </c>
       <c r="F23" s="20" t="s">
-        <v>153</v>
+        <v>147</v>
       </c>
       <c r="G23" s="8" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
     </row>
     <row r="24" spans="2:8" ht="63" x14ac:dyDescent="0.4">
@@ -3399,59 +3381,59 @@
         <v>18</v>
       </c>
       <c r="C24" s="10" t="s">
-        <v>98</v>
-      </c>
-      <c r="D24" s="7" t="s">
-        <v>22</v>
+        <v>93</v>
+      </c>
+      <c r="D24" s="20" t="s">
+        <v>7</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>23</v>
+        <v>110</v>
       </c>
       <c r="F24" s="20" t="s">
-        <v>154</v>
-      </c>
-      <c r="G24" s="8" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="25" spans="2:8" ht="63" x14ac:dyDescent="0.4">
+        <v>148</v>
+      </c>
+      <c r="G24" s="20" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="25" spans="2:8" ht="78.75" x14ac:dyDescent="0.4">
       <c r="B25" s="22">
         <v>19</v>
       </c>
       <c r="C25" s="10" t="s">
-        <v>98</v>
-      </c>
-      <c r="D25" s="7" t="s">
-        <v>22</v>
+        <v>93</v>
+      </c>
+      <c r="D25" s="20" t="s">
+        <v>7</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>25</v>
+        <v>111</v>
       </c>
       <c r="F25" s="20" t="s">
-        <v>155</v>
-      </c>
-      <c r="G25" s="8" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="26" spans="2:8" ht="63" x14ac:dyDescent="0.4">
+        <v>149</v>
+      </c>
+      <c r="G25" s="20" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="26" spans="2:8" ht="78.75" x14ac:dyDescent="0.4">
       <c r="B26" s="22">
         <v>20</v>
       </c>
       <c r="C26" s="10" t="s">
-        <v>98</v>
-      </c>
-      <c r="D26" s="20" t="s">
+        <v>93</v>
+      </c>
+      <c r="D26" s="7" t="s">
         <v>7</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>115</v>
+        <v>27</v>
       </c>
       <c r="F26" s="20" t="s">
-        <v>156</v>
-      </c>
-      <c r="G26" s="20" t="s">
-        <v>101</v>
+        <v>150</v>
+      </c>
+      <c r="G26" s="8" t="s">
+        <v>28</v>
       </c>
     </row>
     <row r="27" spans="2:8" ht="78.75" x14ac:dyDescent="0.4">
@@ -3459,19 +3441,19 @@
         <v>21</v>
       </c>
       <c r="C27" s="10" t="s">
-        <v>98</v>
-      </c>
-      <c r="D27" s="20" t="s">
+        <v>93</v>
+      </c>
+      <c r="D27" s="7" t="s">
         <v>7</v>
       </c>
       <c r="E27" s="7" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
       <c r="F27" s="20" t="s">
-        <v>157</v>
-      </c>
-      <c r="G27" s="20" t="s">
-        <v>8</v>
+        <v>151</v>
+      </c>
+      <c r="G27" s="8" t="s">
+        <v>29</v>
       </c>
     </row>
     <row r="28" spans="2:8" ht="78.75" x14ac:dyDescent="0.4">
@@ -3479,19 +3461,19 @@
         <v>22</v>
       </c>
       <c r="C28" s="10" t="s">
-        <v>98</v>
+        <v>93</v>
       </c>
       <c r="D28" s="7" t="s">
         <v>7</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>27</v>
+        <v>113</v>
       </c>
       <c r="F28" s="20" t="s">
-        <v>158</v>
+        <v>152</v>
       </c>
       <c r="G28" s="8" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
     </row>
     <row r="29" spans="2:8" ht="78.75" x14ac:dyDescent="0.4">
@@ -3499,19 +3481,19 @@
         <v>23</v>
       </c>
       <c r="C29" s="10" t="s">
-        <v>98</v>
+        <v>93</v>
       </c>
       <c r="D29" s="7" t="s">
         <v>7</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>117</v>
+        <v>109</v>
       </c>
       <c r="F29" s="20" t="s">
-        <v>159</v>
+        <v>153</v>
       </c>
       <c r="G29" s="8" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
     </row>
     <row r="30" spans="2:8" ht="78.75" x14ac:dyDescent="0.4">
@@ -3519,19 +3501,19 @@
         <v>24</v>
       </c>
       <c r="C30" s="10" t="s">
-        <v>98</v>
+        <v>93</v>
       </c>
       <c r="D30" s="7" t="s">
         <v>7</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>118</v>
+        <v>33</v>
       </c>
       <c r="F30" s="20" t="s">
-        <v>160</v>
+        <v>154</v>
       </c>
       <c r="G30" s="8" t="s">
-        <v>30</v>
+        <v>168</v>
       </c>
     </row>
     <row r="31" spans="2:8" ht="78.75" x14ac:dyDescent="0.4">
@@ -3539,7 +3521,7 @@
         <v>25</v>
       </c>
       <c r="C31" s="10" t="s">
-        <v>98</v>
+        <v>93</v>
       </c>
       <c r="D31" s="7" t="s">
         <v>7</v>
@@ -3548,10 +3530,10 @@
         <v>114</v>
       </c>
       <c r="F31" s="20" t="s">
-        <v>161</v>
+        <v>155</v>
       </c>
       <c r="G31" s="8" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
     </row>
     <row r="32" spans="2:8" ht="78.75" x14ac:dyDescent="0.4">
@@ -3559,19 +3541,19 @@
         <v>26</v>
       </c>
       <c r="C32" s="10" t="s">
-        <v>98</v>
+        <v>93</v>
       </c>
       <c r="D32" s="7" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="E32" s="7" t="s">
-        <v>38</v>
+        <v>12</v>
       </c>
       <c r="F32" s="20" t="s">
-        <v>162</v>
+        <v>156</v>
       </c>
       <c r="G32" s="8" t="s">
-        <v>178</v>
+        <v>13</v>
       </c>
     </row>
     <row r="33" spans="1:8" ht="78.75" x14ac:dyDescent="0.4">
@@ -3579,19 +3561,19 @@
         <v>27</v>
       </c>
       <c r="C33" s="10" t="s">
-        <v>98</v>
+        <v>93</v>
       </c>
       <c r="D33" s="7" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="E33" s="7" t="s">
-        <v>119</v>
+        <v>14</v>
       </c>
       <c r="F33" s="20" t="s">
-        <v>163</v>
+        <v>157</v>
       </c>
       <c r="G33" s="8" t="s">
-        <v>39</v>
+        <v>15</v>
       </c>
     </row>
     <row r="34" spans="1:8" ht="78.75" x14ac:dyDescent="0.4">
@@ -3599,19 +3581,19 @@
         <v>28</v>
       </c>
       <c r="C34" s="10" t="s">
-        <v>98</v>
+        <v>93</v>
       </c>
       <c r="D34" s="7" t="s">
         <v>11</v>
       </c>
       <c r="E34" s="7" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="F34" s="20" t="s">
-        <v>164</v>
+        <v>158</v>
       </c>
       <c r="G34" s="8" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
     </row>
     <row r="35" spans="1:8" ht="78.75" x14ac:dyDescent="0.4">
@@ -3619,19 +3601,19 @@
         <v>29</v>
       </c>
       <c r="C35" s="10" t="s">
-        <v>98</v>
+        <v>93</v>
       </c>
       <c r="D35" s="7" t="s">
         <v>11</v>
       </c>
       <c r="E35" s="7" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="F35" s="20" t="s">
-        <v>165</v>
+        <v>159</v>
       </c>
       <c r="G35" s="8" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
     </row>
     <row r="36" spans="1:8" ht="78.75" x14ac:dyDescent="0.4">
@@ -3639,19 +3621,19 @@
         <v>30</v>
       </c>
       <c r="C36" s="10" t="s">
-        <v>98</v>
+        <v>93</v>
       </c>
       <c r="D36" s="7" t="s">
-        <v>11</v>
+        <v>104</v>
       </c>
       <c r="E36" s="7" t="s">
-        <v>16</v>
+        <v>105</v>
       </c>
       <c r="F36" s="20" t="s">
-        <v>166</v>
+        <v>160</v>
       </c>
       <c r="G36" s="8" t="s">
-        <v>17</v>
+        <v>107</v>
       </c>
     </row>
     <row r="37" spans="1:8" ht="78.75" x14ac:dyDescent="0.4">
@@ -3659,19 +3641,19 @@
         <v>31</v>
       </c>
       <c r="C37" s="10" t="s">
-        <v>98</v>
+        <v>93</v>
       </c>
       <c r="D37" s="7" t="s">
-        <v>11</v>
+        <v>104</v>
       </c>
       <c r="E37" s="7" t="s">
-        <v>18</v>
+        <v>103</v>
       </c>
       <c r="F37" s="20" t="s">
-        <v>167</v>
+        <v>161</v>
       </c>
       <c r="G37" s="8" t="s">
-        <v>19</v>
+        <v>106</v>
       </c>
     </row>
     <row r="38" spans="1:8" ht="78.75" x14ac:dyDescent="0.4">
@@ -3679,19 +3661,19 @@
         <v>32</v>
       </c>
       <c r="C38" s="10" t="s">
-        <v>98</v>
+        <v>93</v>
       </c>
       <c r="D38" s="7" t="s">
-        <v>109</v>
+        <v>104</v>
       </c>
       <c r="E38" s="7" t="s">
-        <v>110</v>
+        <v>100</v>
       </c>
       <c r="F38" s="20" t="s">
-        <v>168</v>
+        <v>162</v>
       </c>
       <c r="G38" s="8" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
     </row>
     <row r="39" spans="1:8" ht="78.75" x14ac:dyDescent="0.4">
@@ -3699,91 +3681,57 @@
         <v>33</v>
       </c>
       <c r="C39" s="10" t="s">
-        <v>98</v>
+        <v>93</v>
       </c>
       <c r="D39" s="7" t="s">
-        <v>109</v>
+        <v>104</v>
       </c>
       <c r="E39" s="7" t="s">
-        <v>108</v>
-      </c>
-      <c r="F39" s="20" t="s">
-        <v>169</v>
+        <v>129</v>
+      </c>
+      <c r="F39" s="8" t="s">
+        <v>164</v>
       </c>
       <c r="G39" s="8" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="40" spans="1:8" ht="78.75" x14ac:dyDescent="0.4">
+        <v>130</v>
+      </c>
+      <c r="H39" s="15"/>
+    </row>
+    <row r="40" spans="1:8" ht="94.5" x14ac:dyDescent="0.4">
       <c r="B40" s="22">
         <v>34</v>
       </c>
       <c r="C40" s="10" t="s">
-        <v>98</v>
+        <v>93</v>
       </c>
       <c r="D40" s="7" t="s">
-        <v>109</v>
+        <v>176</v>
       </c>
       <c r="E40" s="7" t="s">
-        <v>105</v>
-      </c>
-      <c r="F40" s="20" t="s">
-        <v>170</v>
+        <v>174</v>
+      </c>
+      <c r="F40" s="8" t="s">
+        <v>175</v>
       </c>
       <c r="G40" s="8" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="41" spans="1:8" ht="63" x14ac:dyDescent="0.4">
-      <c r="B41" s="22">
-        <v>35</v>
-      </c>
-      <c r="C41" s="10" t="s">
-        <v>98</v>
-      </c>
-      <c r="D41" s="7" t="s">
-        <v>109</v>
-      </c>
-      <c r="E41" s="7" t="s">
-        <v>134</v>
-      </c>
-      <c r="F41" s="8" t="s">
-        <v>171</v>
-      </c>
-      <c r="G41" s="8" t="s">
-        <v>179</v>
-      </c>
-      <c r="H41" s="15"/>
-    </row>
-    <row r="42" spans="1:8" ht="78.75" x14ac:dyDescent="0.4">
-      <c r="B42" s="22">
-        <v>36</v>
-      </c>
-      <c r="C42" s="10" t="s">
-        <v>98</v>
-      </c>
-      <c r="D42" s="7" t="s">
-        <v>109</v>
-      </c>
-      <c r="E42" s="7" t="s">
-        <v>135</v>
-      </c>
-      <c r="F42" s="8" t="s">
-        <v>173</v>
-      </c>
-      <c r="G42" s="8" t="s">
-        <v>136</v>
-      </c>
-      <c r="H42" s="15"/>
+        <v>177</v>
+      </c>
+      <c r="H40" s="15"/>
+    </row>
+    <row r="41" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A41" s="1"/>
+      <c r="F41" s="21"/>
+      <c r="G41" s="1"/>
+    </row>
+    <row r="42" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A42" s="1"/>
+      <c r="B42" s="14"/>
     </row>
     <row r="43" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A43" s="1"/>
-      <c r="F43" s="21"/>
-      <c r="G43" s="1"/>
     </row>
     <row r="44" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A44" s="1"/>
-      <c r="B44" s="14"/>
     </row>
     <row r="45" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A45" s="1"/>
@@ -3833,14 +3781,8 @@
     <row r="60" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A60" s="1"/>
     </row>
-    <row r="61" spans="1:1" x14ac:dyDescent="0.4">
-      <c r="A61" s="1"/>
-    </row>
-    <row r="62" spans="1:1" x14ac:dyDescent="0.4">
-      <c r="A62" s="1"/>
-    </row>
   </sheetData>
-  <autoFilter ref="C6:G37"/>
+  <autoFilter ref="C6:G35"/>
   <sortState ref="B7:F42">
     <sortCondition ref="B42"/>
   </sortState>
@@ -3872,7 +3814,7 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A1" s="3" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="B1" s="3" t="s">
         <v>0</v>
@@ -3880,154 +3822,154 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A2" s="4" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A3" s="4" t="s">
-        <v>46</v>
+        <v>41</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>47</v>
+        <v>42</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A4" s="4" t="s">
-        <v>48</v>
+        <v>43</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>49</v>
+        <v>44</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A5" s="4" t="s">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>51</v>
+        <v>46</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A6" s="4" t="s">
-        <v>52</v>
+        <v>47</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>53</v>
+        <v>48</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A7" s="4" t="s">
-        <v>54</v>
+        <v>49</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>55</v>
+        <v>50</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A8" s="4" t="s">
-        <v>56</v>
+        <v>51</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>57</v>
+        <v>52</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A9" s="4" t="s">
-        <v>58</v>
+        <v>53</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>59</v>
+        <v>54</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A10" s="4" t="s">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>61</v>
+        <v>56</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A11" s="4" t="s">
-        <v>62</v>
+        <v>57</v>
       </c>
       <c r="B11" s="4" t="s">
-        <v>63</v>
+        <v>58</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A12" s="4" t="s">
-        <v>64</v>
+        <v>59</v>
       </c>
       <c r="B12" s="4" t="s">
-        <v>65</v>
+        <v>60</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A13" s="4" t="s">
-        <v>66</v>
+        <v>61</v>
       </c>
       <c r="B13" s="4" t="s">
-        <v>67</v>
+        <v>62</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A14" s="6" t="s">
-        <v>68</v>
+        <v>63</v>
       </c>
       <c r="B14" s="4" t="s">
-        <v>69</v>
+        <v>64</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A15" s="6" t="s">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="B15" s="4" t="s">
-        <v>71</v>
+        <v>66</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A16" s="6" t="s">
-        <v>72</v>
+        <v>67</v>
       </c>
       <c r="B16" s="4" t="s">
-        <v>73</v>
+        <v>68</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A17" s="6" t="s">
-        <v>74</v>
+        <v>69</v>
       </c>
       <c r="B17" s="4" t="s">
-        <v>75</v>
+        <v>70</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A18" s="6" t="s">
-        <v>76</v>
+        <v>71</v>
       </c>
       <c r="B18" s="4" t="s">
-        <v>77</v>
+        <v>72</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A19" s="6" t="s">
-        <v>78</v>
+        <v>73</v>
       </c>
       <c r="B19" s="4" t="s">
-        <v>79</v>
+        <v>74</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A20" s="4" t="s">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="B20" s="4" t="s">
-        <v>81</v>
+        <v>76</v>
       </c>
     </row>
   </sheetData>
@@ -4057,72 +3999,72 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A1" s="3" t="s">
-        <v>82</v>
+        <v>77</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>83</v>
+        <v>78</v>
       </c>
       <c r="D1" s="3" t="s">
-        <v>89</v>
+        <v>84</v>
       </c>
     </row>
     <row r="2" spans="1:4" ht="31.5" x14ac:dyDescent="0.4">
       <c r="A2" s="5" t="s">
-        <v>90</v>
+        <v>85</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>91</v>
+        <v>86</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>92</v>
+        <v>87</v>
       </c>
       <c r="D2" s="4" t="s">
-        <v>93</v>
+        <v>88</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A3" s="5" t="s">
-        <v>84</v>
+        <v>79</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>85</v>
+        <v>80</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>86</v>
+        <v>81</v>
       </c>
       <c r="D3" s="4" t="s">
-        <v>94</v>
+        <v>89</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A4" s="5" t="s">
-        <v>84</v>
+        <v>79</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>87</v>
+        <v>82</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>88</v>
+        <v>83</v>
       </c>
       <c r="D4" s="4" t="s">
-        <v>94</v>
+        <v>89</v>
       </c>
     </row>
     <row r="5" spans="1:4" ht="47.25" x14ac:dyDescent="0.4">
       <c r="A5" s="5" t="s">
-        <v>95</v>
+        <v>90</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>96</v>
+        <v>91</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>97</v>
+        <v>92</v>
       </c>
       <c r="D5" s="5" t="s">
-        <v>94</v>
+        <v>89</v>
       </c>
     </row>
   </sheetData>

--- a/asset/Documents_ja/Exastro-ITA_【参考】登録サービス一覧.xlsx
+++ b/asset/Documents_ja/Exastro-ITA_【参考】登録サービス一覧.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="18315" windowHeight="9465" tabRatio="566"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="18312" windowHeight="9468" tabRatio="566"/>
   </bookViews>
   <sheets>
     <sheet name="登録サービス一覧" sheetId="12" r:id="rId1"/>
@@ -615,19 +615,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>Conductor作業状態同期</t>
-    <rPh sb="9" eb="11">
-      <t>サギョウ</t>
-    </rPh>
-    <rPh sb="11" eb="13">
-      <t>ジョウタイ</t>
-    </rPh>
-    <rPh sb="13" eb="15">
-      <t>ドウキ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>ky_terraform_execute-workflow.service</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -979,7 +966,30 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>Ver1.8</t>
+    <t>Conductor作業状態同期
+通知実行機能</t>
+    <rPh sb="9" eb="11">
+      <t>サギョウ</t>
+    </rPh>
+    <rPh sb="11" eb="13">
+      <t>ジョウタイ</t>
+    </rPh>
+    <rPh sb="13" eb="15">
+      <t>ドウキ</t>
+    </rPh>
+    <rPh sb="16" eb="18">
+      <t>ツウチ</t>
+    </rPh>
+    <rPh sb="18" eb="20">
+      <t>ジッコウ</t>
+    </rPh>
+    <rPh sb="20" eb="22">
+      <t>キノウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Ver1.9</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -2950,24 +2960,24 @@
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" view="pageBreakPreview" zoomScale="60" zoomScaleNormal="85" workbookViewId="0">
       <pane ySplit="6" topLeftCell="A7" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G2" sqref="G2"/>
+      <selection pane="bottomLeft" activeCell="K8" sqref="K8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="3.125" style="9" customWidth="1"/>
+    <col min="1" max="1" width="3.09765625" style="9" customWidth="1"/>
     <col min="2" max="2" width="5.5" style="17" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="10.75" style="1" customWidth="1"/>
-    <col min="4" max="4" width="18.125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="54.875" style="1" customWidth="1"/>
-    <col min="6" max="6" width="60.75" style="2" customWidth="1"/>
-    <col min="7" max="7" width="47.875" style="2" customWidth="1"/>
+    <col min="3" max="3" width="10.69921875" style="1" customWidth="1"/>
+    <col min="4" max="4" width="18.09765625" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="54.8984375" style="1" customWidth="1"/>
+    <col min="6" max="6" width="60.69921875" style="2" customWidth="1"/>
+    <col min="7" max="7" width="47.8984375" style="2" customWidth="1"/>
     <col min="8" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="21" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:7" ht="22.8" x14ac:dyDescent="0.45">
       <c r="A1" s="18" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="B1" s="16"/>
       <c r="C1" s="9"/>
@@ -2978,7 +2988,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.45">
       <c r="B2" s="16"/>
       <c r="C2" s="9"/>
       <c r="D2" s="9"/>
@@ -2986,9 +2996,9 @@
       <c r="F2" s="19"/>
       <c r="G2" s="11"/>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.45">
       <c r="B3" s="13" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="C3" s="9"/>
       <c r="D3" s="9"/>
@@ -2996,9 +3006,9 @@
       <c r="F3" s="19"/>
       <c r="G3" s="11"/>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.45">
       <c r="B4" s="13" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="C4" s="9"/>
       <c r="D4" s="9"/>
@@ -3006,7 +3016,7 @@
       <c r="F4" s="19"/>
       <c r="G4" s="11"/>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.45">
       <c r="B5" s="16"/>
       <c r="C5" s="9"/>
       <c r="D5" s="9"/>
@@ -3014,27 +3024,27 @@
       <c r="F5" s="19"/>
       <c r="G5" s="11"/>
     </row>
-    <row r="6" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B6" s="23" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="C6" s="23" t="s">
         <v>99</v>
       </c>
       <c r="D6" s="24" t="s">
+        <v>131</v>
+      </c>
+      <c r="E6" s="23" t="s">
         <v>132</v>
       </c>
-      <c r="E6" s="23" t="s">
+      <c r="F6" s="24" t="s">
+        <v>164</v>
+      </c>
+      <c r="G6" s="23" t="s">
         <v>133</v>
       </c>
-      <c r="F6" s="24" t="s">
-        <v>165</v>
-      </c>
-      <c r="G6" s="23" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.4">
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.45">
       <c r="B7" s="22">
         <v>1</v>
       </c>
@@ -3048,13 +3058,13 @@
         <v>2</v>
       </c>
       <c r="F7" s="8" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="G7" s="8" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.45">
       <c r="B8" s="22">
         <v>2</v>
       </c>
@@ -3068,13 +3078,13 @@
         <v>4</v>
       </c>
       <c r="F8" s="8" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="G8" s="8" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="9" spans="1:7" ht="78.75" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:7" ht="75" x14ac:dyDescent="0.45">
       <c r="B9" s="22">
         <v>3</v>
       </c>
@@ -3085,16 +3095,16 @@
         <v>1</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="F9" s="8" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="G9" s="8" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="10" spans="1:7" ht="63" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:7" ht="60" x14ac:dyDescent="0.45">
       <c r="B10" s="22">
         <v>4</v>
       </c>
@@ -3105,16 +3115,16 @@
         <v>1</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="F10" s="20" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="G10" s="8" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="11" spans="1:7" ht="63" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:7" ht="60" x14ac:dyDescent="0.45">
       <c r="B11" s="22">
         <v>5</v>
       </c>
@@ -3125,16 +3135,16 @@
         <v>1</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="F11" s="20" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="G11" s="8" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="12" spans="1:7" ht="78.75" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:7" ht="60" x14ac:dyDescent="0.45">
       <c r="B12" s="22">
         <v>6</v>
       </c>
@@ -3145,16 +3155,16 @@
         <v>1</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="F12" s="20" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="G12" s="8" t="s">
         <v>98</v>
       </c>
     </row>
-    <row r="13" spans="1:7" ht="47.25" x14ac:dyDescent="0.4">
+    <row r="13" spans="1:7" ht="45" x14ac:dyDescent="0.45">
       <c r="B13" s="22">
         <v>7</v>
       </c>
@@ -3165,16 +3175,16 @@
         <v>1</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="F13" s="20" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="G13" s="20" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="14" spans="1:7" ht="63" x14ac:dyDescent="0.4">
+    <row r="14" spans="1:7" ht="60" x14ac:dyDescent="0.45">
       <c r="B14" s="22">
         <v>8</v>
       </c>
@@ -3185,16 +3195,16 @@
         <v>35</v>
       </c>
       <c r="E14" s="26" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="F14" s="20" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="G14" s="20" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="15" spans="1:7" ht="63" x14ac:dyDescent="0.4">
+    <row r="15" spans="1:7" ht="60" x14ac:dyDescent="0.45">
       <c r="B15" s="22">
         <v>9</v>
       </c>
@@ -3205,16 +3215,16 @@
         <v>35</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="F15" s="20" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="G15" s="8" t="s">
         <v>97</v>
       </c>
     </row>
-    <row r="16" spans="1:7" ht="63" x14ac:dyDescent="0.4">
+    <row r="16" spans="1:7" ht="60" x14ac:dyDescent="0.45">
       <c r="B16" s="22">
         <v>10</v>
       </c>
@@ -3225,16 +3235,16 @@
         <v>35</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="F16" s="20" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="G16" s="8" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="17" spans="2:8" ht="63" x14ac:dyDescent="0.4">
+    <row r="17" spans="2:8" ht="60" x14ac:dyDescent="0.45">
       <c r="B17" s="22">
         <v>11</v>
       </c>
@@ -3245,16 +3255,16 @@
         <v>35</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="F17" s="20" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="G17" s="8" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="18" spans="2:8" ht="63" x14ac:dyDescent="0.4">
+    <row r="18" spans="2:8" ht="60" x14ac:dyDescent="0.45">
       <c r="B18" s="22">
         <v>12</v>
       </c>
@@ -3265,16 +3275,16 @@
         <v>35</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="F18" s="20" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="G18" s="8" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="19" spans="2:8" ht="63" x14ac:dyDescent="0.4">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="19" spans="2:8" ht="60" x14ac:dyDescent="0.45">
       <c r="B19" s="22">
         <v>13</v>
       </c>
@@ -3285,17 +3295,17 @@
         <v>35</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="F19" s="20" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="G19" s="8" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="H19" s="15"/>
     </row>
-    <row r="20" spans="2:8" ht="63" x14ac:dyDescent="0.4">
+    <row r="20" spans="2:8" ht="60" x14ac:dyDescent="0.45">
       <c r="B20" s="22">
         <v>14</v>
       </c>
@@ -3306,17 +3316,17 @@
         <v>35</v>
       </c>
       <c r="E20" s="7" t="s">
+        <v>170</v>
+      </c>
+      <c r="F20" s="20" t="s">
+        <v>172</v>
+      </c>
+      <c r="G20" s="8" t="s">
         <v>171</v>
       </c>
-      <c r="F20" s="20" t="s">
-        <v>173</v>
-      </c>
-      <c r="G20" s="8" t="s">
-        <v>172</v>
-      </c>
       <c r="H20" s="15"/>
     </row>
-    <row r="21" spans="2:8" ht="78.75" x14ac:dyDescent="0.4">
+    <row r="21" spans="2:8" ht="75" x14ac:dyDescent="0.45">
       <c r="B21" s="22">
         <v>15</v>
       </c>
@@ -3327,16 +3337,16 @@
         <v>20</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="F21" s="20" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="G21" s="8" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="22" spans="2:8" ht="63" x14ac:dyDescent="0.4">
+    <row r="22" spans="2:8" ht="60" x14ac:dyDescent="0.45">
       <c r="B22" s="22">
         <v>16</v>
       </c>
@@ -3350,13 +3360,13 @@
         <v>23</v>
       </c>
       <c r="F22" s="20" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="G22" s="8" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="23" spans="2:8" ht="63" x14ac:dyDescent="0.4">
+    <row r="23" spans="2:8" ht="60" x14ac:dyDescent="0.45">
       <c r="B23" s="22">
         <v>17</v>
       </c>
@@ -3370,13 +3380,13 @@
         <v>25</v>
       </c>
       <c r="F23" s="20" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="G23" s="8" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="24" spans="2:8" ht="63" x14ac:dyDescent="0.4">
+    <row r="24" spans="2:8" ht="60" x14ac:dyDescent="0.45">
       <c r="B24" s="22">
         <v>18</v>
       </c>
@@ -3387,16 +3397,16 @@
         <v>7</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="F24" s="20" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="G24" s="20" t="s">
         <v>96</v>
       </c>
     </row>
-    <row r="25" spans="2:8" ht="78.75" x14ac:dyDescent="0.4">
+    <row r="25" spans="2:8" ht="75" x14ac:dyDescent="0.45">
       <c r="B25" s="22">
         <v>19</v>
       </c>
@@ -3407,16 +3417,16 @@
         <v>7</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="F25" s="20" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="G25" s="20" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="26" spans="2:8" ht="78.75" x14ac:dyDescent="0.4">
+    <row r="26" spans="2:8" ht="75" x14ac:dyDescent="0.45">
       <c r="B26" s="22">
         <v>20</v>
       </c>
@@ -3430,13 +3440,13 @@
         <v>27</v>
       </c>
       <c r="F26" s="20" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="G26" s="8" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="27" spans="2:8" ht="78.75" x14ac:dyDescent="0.4">
+    <row r="27" spans="2:8" ht="75" x14ac:dyDescent="0.45">
       <c r="B27" s="22">
         <v>21</v>
       </c>
@@ -3447,16 +3457,16 @@
         <v>7</v>
       </c>
       <c r="E27" s="7" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="F27" s="20" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="G27" s="8" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="28" spans="2:8" ht="78.75" x14ac:dyDescent="0.4">
+    <row r="28" spans="2:8" ht="60" x14ac:dyDescent="0.45">
       <c r="B28" s="22">
         <v>22</v>
       </c>
@@ -3467,16 +3477,16 @@
         <v>7</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="F28" s="20" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="G28" s="8" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="29" spans="2:8" ht="78.75" x14ac:dyDescent="0.4">
+    <row r="29" spans="2:8" ht="75" x14ac:dyDescent="0.45">
       <c r="B29" s="22">
         <v>23</v>
       </c>
@@ -3487,16 +3497,16 @@
         <v>7</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="F29" s="20" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="G29" s="8" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="30" spans="2:8" ht="78.75" x14ac:dyDescent="0.4">
+    <row r="30" spans="2:8" ht="75" x14ac:dyDescent="0.45">
       <c r="B30" s="22">
         <v>24</v>
       </c>
@@ -3510,13 +3520,13 @@
         <v>33</v>
       </c>
       <c r="F30" s="20" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="G30" s="8" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="31" spans="2:8" ht="78.75" x14ac:dyDescent="0.4">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="31" spans="2:8" ht="75" x14ac:dyDescent="0.45">
       <c r="B31" s="22">
         <v>25</v>
       </c>
@@ -3527,16 +3537,16 @@
         <v>7</v>
       </c>
       <c r="E31" s="7" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="F31" s="20" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="G31" s="8" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="32" spans="2:8" ht="78.75" x14ac:dyDescent="0.4">
+    <row r="32" spans="2:8" ht="75" x14ac:dyDescent="0.45">
       <c r="B32" s="22">
         <v>26</v>
       </c>
@@ -3550,13 +3560,13 @@
         <v>12</v>
       </c>
       <c r="F32" s="20" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="G32" s="8" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="33" spans="1:8" ht="78.75" x14ac:dyDescent="0.4">
+    <row r="33" spans="1:8" ht="60" x14ac:dyDescent="0.45">
       <c r="B33" s="22">
         <v>27</v>
       </c>
@@ -3570,13 +3580,13 @@
         <v>14</v>
       </c>
       <c r="F33" s="20" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="G33" s="8" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="34" spans="1:8" ht="78.75" x14ac:dyDescent="0.4">
+    <row r="34" spans="1:8" ht="75" x14ac:dyDescent="0.45">
       <c r="B34" s="22">
         <v>28</v>
       </c>
@@ -3590,13 +3600,13 @@
         <v>16</v>
       </c>
       <c r="F34" s="20" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="G34" s="8" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="35" spans="1:8" ht="78.75" x14ac:dyDescent="0.4">
+    <row r="35" spans="1:8" ht="75" x14ac:dyDescent="0.45">
       <c r="B35" s="22">
         <v>29</v>
       </c>
@@ -3610,13 +3620,13 @@
         <v>18</v>
       </c>
       <c r="F35" s="20" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="G35" s="8" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="36" spans="1:8" ht="78.75" x14ac:dyDescent="0.4">
+    <row r="36" spans="1:8" ht="75" x14ac:dyDescent="0.45">
       <c r="B36" s="22">
         <v>30</v>
       </c>
@@ -3624,19 +3634,19 @@
         <v>93</v>
       </c>
       <c r="D36" s="7" t="s">
+        <v>103</v>
+      </c>
+      <c r="E36" s="7" t="s">
         <v>104</v>
       </c>
-      <c r="E36" s="7" t="s">
-        <v>105</v>
-      </c>
       <c r="F36" s="20" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="G36" s="8" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="37" spans="1:8" ht="78.75" x14ac:dyDescent="0.4">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="37" spans="1:8" ht="75" x14ac:dyDescent="0.45">
       <c r="B37" s="22">
         <v>31</v>
       </c>
@@ -3644,19 +3654,19 @@
         <v>93</v>
       </c>
       <c r="D37" s="7" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="E37" s="7" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="F37" s="20" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="G37" s="8" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="38" spans="1:8" ht="78.75" x14ac:dyDescent="0.4">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="38" spans="1:8" ht="75" x14ac:dyDescent="0.45">
       <c r="B38" s="22">
         <v>32</v>
       </c>
@@ -3664,19 +3674,19 @@
         <v>93</v>
       </c>
       <c r="D38" s="7" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="E38" s="7" t="s">
         <v>100</v>
       </c>
       <c r="F38" s="20" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="G38" s="8" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="39" spans="1:8" ht="78.75" x14ac:dyDescent="0.4">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="39" spans="1:8" ht="75" x14ac:dyDescent="0.45">
       <c r="B39" s="22">
         <v>33</v>
       </c>
@@ -3684,20 +3694,20 @@
         <v>93</v>
       </c>
       <c r="D39" s="7" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="E39" s="7" t="s">
+        <v>128</v>
+      </c>
+      <c r="F39" s="8" t="s">
+        <v>163</v>
+      </c>
+      <c r="G39" s="8" t="s">
         <v>129</v>
       </c>
-      <c r="F39" s="8" t="s">
-        <v>164</v>
-      </c>
-      <c r="G39" s="8" t="s">
-        <v>130</v>
-      </c>
       <c r="H39" s="15"/>
     </row>
-    <row r="40" spans="1:8" ht="94.5" x14ac:dyDescent="0.4">
+    <row r="40" spans="1:8" ht="90" x14ac:dyDescent="0.45">
       <c r="B40" s="22">
         <v>34</v>
       </c>
@@ -3705,80 +3715,80 @@
         <v>93</v>
       </c>
       <c r="D40" s="7" t="s">
+        <v>175</v>
+      </c>
+      <c r="E40" s="7" t="s">
+        <v>173</v>
+      </c>
+      <c r="F40" s="8" t="s">
+        <v>174</v>
+      </c>
+      <c r="G40" s="8" t="s">
         <v>176</v>
       </c>
-      <c r="E40" s="7" t="s">
-        <v>174</v>
-      </c>
-      <c r="F40" s="8" t="s">
-        <v>175</v>
-      </c>
-      <c r="G40" s="8" t="s">
-        <v>177</v>
-      </c>
       <c r="H40" s="15"/>
     </row>
-    <row r="41" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="41" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A41" s="1"/>
       <c r="F41" s="21"/>
       <c r="G41" s="1"/>
     </row>
-    <row r="42" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="42" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A42" s="1"/>
       <c r="B42" s="14"/>
     </row>
-    <row r="43" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="43" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A43" s="1"/>
     </row>
-    <row r="44" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="44" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A44" s="1"/>
     </row>
-    <row r="45" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="45" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A45" s="1"/>
     </row>
-    <row r="46" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="46" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A46" s="1"/>
     </row>
-    <row r="47" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="47" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A47" s="1"/>
     </row>
-    <row r="48" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="48" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A48" s="1"/>
     </row>
-    <row r="49" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="49" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A49" s="1"/>
     </row>
-    <row r="50" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="50" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A50" s="1"/>
     </row>
-    <row r="51" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="51" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A51" s="1"/>
     </row>
-    <row r="52" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="52" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A52" s="1"/>
     </row>
-    <row r="53" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="53" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A53" s="1"/>
     </row>
-    <row r="54" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="54" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A54" s="1"/>
     </row>
-    <row r="55" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="55" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A55" s="1"/>
     </row>
-    <row r="56" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="56" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A56" s="1"/>
     </row>
-    <row r="57" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="57" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A57" s="1"/>
     </row>
-    <row r="58" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="58" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A58" s="1"/>
     </row>
-    <row r="59" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="59" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A59" s="1"/>
     </row>
-    <row r="60" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="60" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A60" s="1"/>
     </row>
   </sheetData>
@@ -3805,14 +3815,14 @@
       <selection pane="bottomLeft" activeCell="B34" sqref="B34"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="64.25" style="1" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="64.19921875" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="75" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A1" s="3" t="s">
         <v>38</v>
       </c>
@@ -3820,7 +3830,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A2" s="4" t="s">
         <v>39</v>
       </c>
@@ -3828,7 +3838,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A3" s="4" t="s">
         <v>41</v>
       </c>
@@ -3836,7 +3846,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A4" s="4" t="s">
         <v>43</v>
       </c>
@@ -3844,7 +3854,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A5" s="4" t="s">
         <v>45</v>
       </c>
@@ -3852,7 +3862,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A6" s="4" t="s">
         <v>47</v>
       </c>
@@ -3860,7 +3870,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A7" s="4" t="s">
         <v>49</v>
       </c>
@@ -3868,7 +3878,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A8" s="4" t="s">
         <v>51</v>
       </c>
@@ -3876,7 +3886,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A9" s="4" t="s">
         <v>53</v>
       </c>
@@ -3884,7 +3894,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A10" s="4" t="s">
         <v>55</v>
       </c>
@@ -3892,7 +3902,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A11" s="4" t="s">
         <v>57</v>
       </c>
@@ -3900,7 +3910,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A12" s="4" t="s">
         <v>59</v>
       </c>
@@ -3908,7 +3918,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A13" s="4" t="s">
         <v>61</v>
       </c>
@@ -3916,7 +3926,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A14" s="6" t="s">
         <v>63</v>
       </c>
@@ -3924,7 +3934,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A15" s="6" t="s">
         <v>65</v>
       </c>
@@ -3932,7 +3942,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="16" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A16" s="6" t="s">
         <v>67</v>
       </c>
@@ -3940,7 +3950,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A17" s="6" t="s">
         <v>69</v>
       </c>
@@ -3948,7 +3958,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A18" s="6" t="s">
         <v>71</v>
       </c>
@@ -3956,7 +3966,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A19" s="6" t="s">
         <v>73</v>
       </c>
@@ -3964,7 +3974,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A20" s="4" t="s">
         <v>75</v>
       </c>
@@ -3988,16 +3998,16 @@
       <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="19.875" style="1" customWidth="1"/>
+    <col min="1" max="1" width="19.8984375" style="1" customWidth="1"/>
     <col min="2" max="2" width="21" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="23.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="37.125" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="37.09765625" style="1" bestFit="1" customWidth="1"/>
     <col min="5" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A1" s="3" t="s">
         <v>77</v>
       </c>
@@ -4011,7 +4021,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="2" spans="1:4" ht="31.5" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:4" ht="30" x14ac:dyDescent="0.45">
       <c r="A2" s="5" t="s">
         <v>85</v>
       </c>
@@ -4025,7 +4035,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A3" s="5" t="s">
         <v>79</v>
       </c>
@@ -4039,7 +4049,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A4" s="5" t="s">
         <v>79</v>
       </c>
@@ -4053,7 +4063,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="5" spans="1:4" ht="47.25" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:4" ht="45" x14ac:dyDescent="0.45">
       <c r="A5" s="5" t="s">
         <v>90</v>
       </c>

--- a/asset/Documents_ja/Exastro-ITA_【参考】登録サービス一覧.xlsx
+++ b/asset/Documents_ja/Exastro-ITA_【参考】登録サービス一覧.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="18312" windowHeight="9468" tabRatio="566"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="18315" windowHeight="9465" tabRatio="566"/>
   </bookViews>
   <sheets>
     <sheet name="登録サービス一覧" sheetId="12" r:id="rId1"/>
@@ -15,9 +15,9 @@
     <externalReference r:id="rId4"/>
   </externalReferences>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">登録サービス一覧!$C$6:$G$41</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">登録サービス一覧!$C$6:$G$42</definedName>
     <definedName name="FILTER_PARENT_DIR_ID">[1]マスタ!$G$2:$G$289</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">登録サービス一覧!$A$1:$G$40</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">登録サービス一覧!$A$1:$G$41</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="0">登録サービス一覧!$6:$6</definedName>
   </definedNames>
   <calcPr calcId="162913"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="240" uniqueCount="179">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="245" uniqueCount="182">
   <si>
     <t>概要</t>
     <rPh sb="0" eb="2">
@@ -990,6 +990,24 @@
   </si>
   <si>
     <t>Ver1.9</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ky_bulk_excel-workflow.service</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Excel一括エクスポート/インポート実行</t>
+    <rPh sb="5" eb="7">
+      <t>イッカツ</t>
+    </rPh>
+    <rPh sb="19" eb="21">
+      <t>ジッコウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>/bin/sh /(ITAインストールディレクトリ)/ita-root/backyards/common/ky_loopcall-php-procedure.sh /bin/php /bin/php /(ITAインストールディレクトリ)/ita-root/backyards/ita_base/ky_bulk_excel-workflow.php</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -2956,26 +2974,26 @@
   <sheetPr codeName="Sheet1">
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:H60"/>
+  <dimension ref="A1:H61"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" view="pageBreakPreview" zoomScale="60" zoomScaleNormal="85" workbookViewId="0">
-      <pane ySplit="6" topLeftCell="A7" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="K8" sqref="K8"/>
+      <pane ySplit="6" topLeftCell="A20" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E40" sqref="E40"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.75" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="1" width="3.09765625" style="9" customWidth="1"/>
+    <col min="1" max="1" width="3.125" style="9" customWidth="1"/>
     <col min="2" max="2" width="5.5" style="17" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="10.69921875" style="1" customWidth="1"/>
-    <col min="4" max="4" width="18.09765625" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="54.8984375" style="1" customWidth="1"/>
-    <col min="6" max="6" width="60.69921875" style="2" customWidth="1"/>
-    <col min="7" max="7" width="47.8984375" style="2" customWidth="1"/>
+    <col min="3" max="3" width="10.75" style="1" customWidth="1"/>
+    <col min="4" max="4" width="18.125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="54.875" style="1" customWidth="1"/>
+    <col min="6" max="6" width="60.75" style="2" customWidth="1"/>
+    <col min="7" max="7" width="47.875" style="2" customWidth="1"/>
     <col min="8" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="22.8" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:7" ht="21" x14ac:dyDescent="0.4">
       <c r="A1" s="18" t="s">
         <v>130</v>
       </c>
@@ -2988,7 +3006,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.4">
       <c r="B2" s="16"/>
       <c r="C2" s="9"/>
       <c r="D2" s="9"/>
@@ -2996,7 +3014,7 @@
       <c r="F2" s="19"/>
       <c r="G2" s="11"/>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.4">
       <c r="B3" s="13" t="s">
         <v>166</v>
       </c>
@@ -3006,7 +3024,7 @@
       <c r="F3" s="19"/>
       <c r="G3" s="11"/>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.4">
       <c r="B4" s="13" t="s">
         <v>165</v>
       </c>
@@ -3016,7 +3034,7 @@
       <c r="F4" s="19"/>
       <c r="G4" s="11"/>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.4">
       <c r="B5" s="16"/>
       <c r="C5" s="9"/>
       <c r="D5" s="9"/>
@@ -3024,7 +3042,7 @@
       <c r="F5" s="19"/>
       <c r="G5" s="11"/>
     </row>
-    <row r="6" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B6" s="23" t="s">
         <v>134</v>
       </c>
@@ -3044,7 +3062,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.4">
       <c r="B7" s="22">
         <v>1</v>
       </c>
@@ -3064,7 +3082,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.4">
       <c r="B8" s="22">
         <v>2</v>
       </c>
@@ -3084,7 +3102,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="9" spans="1:7" ht="75" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:7" ht="78.75" x14ac:dyDescent="0.4">
       <c r="B9" s="22">
         <v>3</v>
       </c>
@@ -3104,7 +3122,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="10" spans="1:7" ht="60" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:7" ht="63" x14ac:dyDescent="0.4">
       <c r="B10" s="22">
         <v>4</v>
       </c>
@@ -3124,7 +3142,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="11" spans="1:7" ht="60" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:7" ht="63" x14ac:dyDescent="0.4">
       <c r="B11" s="22">
         <v>5</v>
       </c>
@@ -3144,7 +3162,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="12" spans="1:7" ht="60" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:7" ht="78.75" x14ac:dyDescent="0.4">
       <c r="B12" s="22">
         <v>6</v>
       </c>
@@ -3164,7 +3182,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="13" spans="1:7" ht="45" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:7" ht="47.25" x14ac:dyDescent="0.4">
       <c r="B13" s="22">
         <v>7</v>
       </c>
@@ -3184,7 +3202,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="14" spans="1:7" ht="60" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:7" ht="63" x14ac:dyDescent="0.4">
       <c r="B14" s="22">
         <v>8</v>
       </c>
@@ -3204,7 +3222,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="15" spans="1:7" ht="60" x14ac:dyDescent="0.45">
+    <row r="15" spans="1:7" ht="63" x14ac:dyDescent="0.4">
       <c r="B15" s="22">
         <v>9</v>
       </c>
@@ -3224,7 +3242,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="16" spans="1:7" ht="60" x14ac:dyDescent="0.45">
+    <row r="16" spans="1:7" ht="63" x14ac:dyDescent="0.4">
       <c r="B16" s="22">
         <v>10</v>
       </c>
@@ -3244,7 +3262,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="17" spans="2:8" ht="60" x14ac:dyDescent="0.45">
+    <row r="17" spans="2:8" ht="63" x14ac:dyDescent="0.4">
       <c r="B17" s="22">
         <v>11</v>
       </c>
@@ -3264,7 +3282,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="18" spans="2:8" ht="60" x14ac:dyDescent="0.45">
+    <row r="18" spans="2:8" ht="63" x14ac:dyDescent="0.4">
       <c r="B18" s="22">
         <v>12</v>
       </c>
@@ -3284,7 +3302,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="19" spans="2:8" ht="60" x14ac:dyDescent="0.45">
+    <row r="19" spans="2:8" ht="63" x14ac:dyDescent="0.4">
       <c r="B19" s="22">
         <v>13</v>
       </c>
@@ -3305,7 +3323,7 @@
       </c>
       <c r="H19" s="15"/>
     </row>
-    <row r="20" spans="2:8" ht="60" x14ac:dyDescent="0.45">
+    <row r="20" spans="2:8" ht="63" x14ac:dyDescent="0.4">
       <c r="B20" s="22">
         <v>14</v>
       </c>
@@ -3326,7 +3344,7 @@
       </c>
       <c r="H20" s="15"/>
     </row>
-    <row r="21" spans="2:8" ht="75" x14ac:dyDescent="0.45">
+    <row r="21" spans="2:8" ht="63" x14ac:dyDescent="0.4">
       <c r="B21" s="22">
         <v>15</v>
       </c>
@@ -3334,19 +3352,20 @@
         <v>93</v>
       </c>
       <c r="D21" s="7" t="s">
-        <v>20</v>
+        <v>35</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>114</v>
+        <v>179</v>
       </c>
       <c r="F21" s="20" t="s">
-        <v>144</v>
+        <v>181</v>
       </c>
       <c r="G21" s="8" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="22" spans="2:8" ht="60" x14ac:dyDescent="0.45">
+        <v>180</v>
+      </c>
+      <c r="H21" s="15"/>
+    </row>
+    <row r="22" spans="2:8" ht="78.75" x14ac:dyDescent="0.4">
       <c r="B22" s="22">
         <v>16</v>
       </c>
@@ -3354,19 +3373,19 @@
         <v>93</v>
       </c>
       <c r="D22" s="7" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>23</v>
+        <v>114</v>
       </c>
       <c r="F22" s="20" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="G22" s="8" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="23" spans="2:8" ht="60" x14ac:dyDescent="0.45">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="23" spans="2:8" ht="63" x14ac:dyDescent="0.4">
       <c r="B23" s="22">
         <v>17</v>
       </c>
@@ -3377,36 +3396,36 @@
         <v>22</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="F23" s="20" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="G23" s="8" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="24" spans="2:8" ht="60" x14ac:dyDescent="0.45">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="24" spans="2:8" ht="63" x14ac:dyDescent="0.4">
       <c r="B24" s="22">
         <v>18</v>
       </c>
       <c r="C24" s="10" t="s">
         <v>93</v>
       </c>
-      <c r="D24" s="20" t="s">
-        <v>7</v>
+      <c r="D24" s="7" t="s">
+        <v>22</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>109</v>
+        <v>25</v>
       </c>
       <c r="F24" s="20" t="s">
-        <v>147</v>
-      </c>
-      <c r="G24" s="20" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="25" spans="2:8" ht="75" x14ac:dyDescent="0.45">
+        <v>146</v>
+      </c>
+      <c r="G24" s="8" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="25" spans="2:8" ht="63" x14ac:dyDescent="0.4">
       <c r="B25" s="22">
         <v>19</v>
       </c>
@@ -3417,36 +3436,36 @@
         <v>7</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="F25" s="20" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="G25" s="20" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="26" spans="2:8" ht="75" x14ac:dyDescent="0.45">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="26" spans="2:8" ht="78.75" x14ac:dyDescent="0.4">
       <c r="B26" s="22">
         <v>20</v>
       </c>
       <c r="C26" s="10" t="s">
         <v>93</v>
       </c>
-      <c r="D26" s="7" t="s">
+      <c r="D26" s="20" t="s">
         <v>7</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>27</v>
+        <v>110</v>
       </c>
       <c r="F26" s="20" t="s">
-        <v>149</v>
-      </c>
-      <c r="G26" s="8" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="27" spans="2:8" ht="75" x14ac:dyDescent="0.45">
+        <v>148</v>
+      </c>
+      <c r="G26" s="20" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="27" spans="2:8" ht="78.75" x14ac:dyDescent="0.4">
       <c r="B27" s="22">
         <v>21</v>
       </c>
@@ -3457,16 +3476,16 @@
         <v>7</v>
       </c>
       <c r="E27" s="7" t="s">
-        <v>111</v>
+        <v>27</v>
       </c>
       <c r="F27" s="20" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="G27" s="8" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="28" spans="2:8" ht="60" x14ac:dyDescent="0.45">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="28" spans="2:8" ht="78.75" x14ac:dyDescent="0.4">
       <c r="B28" s="22">
         <v>22</v>
       </c>
@@ -3477,16 +3496,16 @@
         <v>7</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="F28" s="20" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="G28" s="8" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="29" spans="2:8" ht="75" x14ac:dyDescent="0.45">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="29" spans="2:8" ht="78.75" x14ac:dyDescent="0.4">
       <c r="B29" s="22">
         <v>23</v>
       </c>
@@ -3497,16 +3516,16 @@
         <v>7</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>108</v>
+        <v>112</v>
       </c>
       <c r="F29" s="20" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="G29" s="8" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="30" spans="2:8" ht="75" x14ac:dyDescent="0.45">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="30" spans="2:8" ht="78.75" x14ac:dyDescent="0.4">
       <c r="B30" s="22">
         <v>24</v>
       </c>
@@ -3517,16 +3536,16 @@
         <v>7</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>33</v>
+        <v>108</v>
       </c>
       <c r="F30" s="20" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="G30" s="8" t="s">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="31" spans="2:8" ht="75" x14ac:dyDescent="0.45">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="31" spans="2:8" ht="78.75" x14ac:dyDescent="0.4">
       <c r="B31" s="22">
         <v>25</v>
       </c>
@@ -3537,16 +3556,16 @@
         <v>7</v>
       </c>
       <c r="E31" s="7" t="s">
-        <v>113</v>
+        <v>33</v>
       </c>
       <c r="F31" s="20" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="G31" s="8" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="32" spans="2:8" ht="75" x14ac:dyDescent="0.45">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="32" spans="2:8" ht="78.75" x14ac:dyDescent="0.4">
       <c r="B32" s="22">
         <v>26</v>
       </c>
@@ -3554,19 +3573,19 @@
         <v>93</v>
       </c>
       <c r="D32" s="7" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="E32" s="7" t="s">
-        <v>12</v>
+        <v>113</v>
       </c>
       <c r="F32" s="20" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="G32" s="8" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="33" spans="1:8" ht="60" x14ac:dyDescent="0.45">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8" ht="78.75" x14ac:dyDescent="0.4">
       <c r="B33" s="22">
         <v>27</v>
       </c>
@@ -3577,16 +3596,16 @@
         <v>11</v>
       </c>
       <c r="E33" s="7" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="F33" s="20" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="G33" s="8" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="34" spans="1:8" ht="75" x14ac:dyDescent="0.45">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8" ht="78.75" x14ac:dyDescent="0.4">
       <c r="B34" s="22">
         <v>28</v>
       </c>
@@ -3597,16 +3616,16 @@
         <v>11</v>
       </c>
       <c r="E34" s="7" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="F34" s="20" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="G34" s="8" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="35" spans="1:8" ht="75" x14ac:dyDescent="0.45">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8" ht="78.75" x14ac:dyDescent="0.4">
       <c r="B35" s="22">
         <v>29</v>
       </c>
@@ -3617,16 +3636,16 @@
         <v>11</v>
       </c>
       <c r="E35" s="7" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="F35" s="20" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="G35" s="8" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="36" spans="1:8" ht="75" x14ac:dyDescent="0.45">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8" ht="78.75" x14ac:dyDescent="0.4">
       <c r="B36" s="22">
         <v>30</v>
       </c>
@@ -3634,19 +3653,19 @@
         <v>93</v>
       </c>
       <c r="D36" s="7" t="s">
-        <v>103</v>
+        <v>11</v>
       </c>
       <c r="E36" s="7" t="s">
-        <v>104</v>
+        <v>18</v>
       </c>
       <c r="F36" s="20" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="G36" s="8" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="37" spans="1:8" ht="75" x14ac:dyDescent="0.45">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="37" spans="1:8" ht="78.75" x14ac:dyDescent="0.4">
       <c r="B37" s="22">
         <v>31</v>
       </c>
@@ -3657,16 +3676,16 @@
         <v>103</v>
       </c>
       <c r="E37" s="7" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="F37" s="20" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="G37" s="8" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="38" spans="1:8" ht="75" x14ac:dyDescent="0.45">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="38" spans="1:8" ht="78.75" x14ac:dyDescent="0.4">
       <c r="B38" s="22">
         <v>32</v>
       </c>
@@ -3677,16 +3696,16 @@
         <v>103</v>
       </c>
       <c r="E38" s="7" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="F38" s="20" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="G38" s="8" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="39" spans="1:8" ht="75" x14ac:dyDescent="0.45">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="39" spans="1:8" ht="78.75" x14ac:dyDescent="0.4">
       <c r="B39" s="22">
         <v>33</v>
       </c>
@@ -3697,17 +3716,16 @@
         <v>103</v>
       </c>
       <c r="E39" s="7" t="s">
-        <v>128</v>
-      </c>
-      <c r="F39" s="8" t="s">
-        <v>163</v>
+        <v>100</v>
+      </c>
+      <c r="F39" s="20" t="s">
+        <v>161</v>
       </c>
       <c r="G39" s="8" t="s">
-        <v>129</v>
-      </c>
-      <c r="H39" s="15"/>
-    </row>
-    <row r="40" spans="1:8" ht="90" x14ac:dyDescent="0.45">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="40" spans="1:8" ht="78.75" x14ac:dyDescent="0.4">
       <c r="B40" s="22">
         <v>34</v>
       </c>
@@ -3715,84 +3733,105 @@
         <v>93</v>
       </c>
       <c r="D40" s="7" t="s">
+        <v>103</v>
+      </c>
+      <c r="E40" s="7" t="s">
+        <v>128</v>
+      </c>
+      <c r="F40" s="8" t="s">
+        <v>163</v>
+      </c>
+      <c r="G40" s="8" t="s">
+        <v>129</v>
+      </c>
+      <c r="H40" s="15"/>
+    </row>
+    <row r="41" spans="1:8" ht="94.5" x14ac:dyDescent="0.4">
+      <c r="B41" s="22">
+        <v>35</v>
+      </c>
+      <c r="C41" s="10" t="s">
+        <v>93</v>
+      </c>
+      <c r="D41" s="7" t="s">
         <v>175</v>
       </c>
-      <c r="E40" s="7" t="s">
+      <c r="E41" s="7" t="s">
         <v>173</v>
       </c>
-      <c r="F40" s="8" t="s">
+      <c r="F41" s="8" t="s">
         <v>174</v>
       </c>
-      <c r="G40" s="8" t="s">
+      <c r="G41" s="8" t="s">
         <v>176</v>
       </c>
-      <c r="H40" s="15"/>
-    </row>
-    <row r="41" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A41" s="1"/>
-      <c r="F41" s="21"/>
-      <c r="G41" s="1"/>
-    </row>
-    <row r="42" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="H41" s="15"/>
+    </row>
+    <row r="42" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A42" s="1"/>
-      <c r="B42" s="14"/>
-    </row>
-    <row r="43" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="F42" s="21"/>
+      <c r="G42" s="1"/>
+    </row>
+    <row r="43" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A43" s="1"/>
-    </row>
-    <row r="44" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="B43" s="14"/>
+    </row>
+    <row r="44" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A44" s="1"/>
     </row>
-    <row r="45" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="45" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A45" s="1"/>
     </row>
-    <row r="46" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="46" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A46" s="1"/>
     </row>
-    <row r="47" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="47" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A47" s="1"/>
     </row>
-    <row r="48" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="48" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A48" s="1"/>
     </row>
-    <row r="49" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="49" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A49" s="1"/>
     </row>
-    <row r="50" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="50" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A50" s="1"/>
     </row>
-    <row r="51" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="51" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A51" s="1"/>
     </row>
-    <row r="52" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="52" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A52" s="1"/>
     </row>
-    <row r="53" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="53" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A53" s="1"/>
     </row>
-    <row r="54" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="54" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A54" s="1"/>
     </row>
-    <row r="55" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="55" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A55" s="1"/>
     </row>
-    <row r="56" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="56" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A56" s="1"/>
     </row>
-    <row r="57" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="57" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A57" s="1"/>
     </row>
-    <row r="58" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="58" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A58" s="1"/>
     </row>
-    <row r="59" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="59" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A59" s="1"/>
     </row>
-    <row r="60" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="60" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A60" s="1"/>
     </row>
+    <row r="61" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A61" s="1"/>
+    </row>
   </sheetData>
-  <autoFilter ref="C6:G35"/>
+  <autoFilter ref="C6:G36"/>
   <sortState ref="B7:F42">
     <sortCondition ref="B42"/>
   </sortState>
@@ -3815,14 +3854,14 @@
       <selection pane="bottomLeft" activeCell="B34" sqref="B34"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.75" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="1" width="64.19921875" style="1" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="64.25" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="75" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A1" s="3" t="s">
         <v>38</v>
       </c>
@@ -3830,7 +3869,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A2" s="4" t="s">
         <v>39</v>
       </c>
@@ -3838,7 +3877,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A3" s="4" t="s">
         <v>41</v>
       </c>
@@ -3846,7 +3885,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A4" s="4" t="s">
         <v>43</v>
       </c>
@@ -3854,7 +3893,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A5" s="4" t="s">
         <v>45</v>
       </c>
@@ -3862,7 +3901,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A6" s="4" t="s">
         <v>47</v>
       </c>
@@ -3870,7 +3909,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A7" s="4" t="s">
         <v>49</v>
       </c>
@@ -3878,7 +3917,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A8" s="4" t="s">
         <v>51</v>
       </c>
@@ -3886,7 +3925,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A9" s="4" t="s">
         <v>53</v>
       </c>
@@ -3894,7 +3933,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A10" s="4" t="s">
         <v>55</v>
       </c>
@@ -3902,7 +3941,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A11" s="4" t="s">
         <v>57</v>
       </c>
@@ -3910,7 +3949,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A12" s="4" t="s">
         <v>59</v>
       </c>
@@ -3918,7 +3957,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A13" s="4" t="s">
         <v>61</v>
       </c>
@@ -3926,7 +3965,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A14" s="6" t="s">
         <v>63</v>
       </c>
@@ -3934,7 +3973,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A15" s="6" t="s">
         <v>65</v>
       </c>
@@ -3942,7 +3981,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="16" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A16" s="6" t="s">
         <v>67</v>
       </c>
@@ -3950,7 +3989,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A17" s="6" t="s">
         <v>69</v>
       </c>
@@ -3958,7 +3997,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A18" s="6" t="s">
         <v>71</v>
       </c>
@@ -3966,7 +4005,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A19" s="6" t="s">
         <v>73</v>
       </c>
@@ -3974,7 +4013,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A20" s="4" t="s">
         <v>75</v>
       </c>
@@ -3998,16 +4037,16 @@
       <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.75" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="1" width="19.8984375" style="1" customWidth="1"/>
+    <col min="1" max="1" width="19.875" style="1" customWidth="1"/>
     <col min="2" max="2" width="21" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="23.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="37.09765625" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="37.125" style="1" bestFit="1" customWidth="1"/>
     <col min="5" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A1" s="3" t="s">
         <v>77</v>
       </c>
@@ -4021,7 +4060,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="2" spans="1:4" ht="30" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:4" ht="31.5" x14ac:dyDescent="0.4">
       <c r="A2" s="5" t="s">
         <v>85</v>
       </c>
@@ -4035,7 +4074,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A3" s="5" t="s">
         <v>79</v>
       </c>
@@ -4049,7 +4088,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A4" s="5" t="s">
         <v>79</v>
       </c>
@@ -4063,7 +4102,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="5" spans="1:4" ht="45" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:4" ht="47.25" x14ac:dyDescent="0.4">
       <c r="A5" s="5" t="s">
         <v>90</v>
       </c>
